--- a/resources/property classes.xlsx
+++ b/resources/property classes.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24701"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27029"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mstern\Documents\GitHub\effective_property_tax\resources\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://cmapil-my.sharepoint.com/personal/abahls_cmap_illinois_gov/Documents/Documents/github_repos/effective_property_tax/resources/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A60A013-1040-4DEC-B76C-0C647DD12EE2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="2" documentId="13_ncr:1_{2A60A013-1040-4DEC-B76C-0C647DD12EE2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BF013571-E9D9-4AA3-8254-A6847BA48987}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="17445" yWindow="-16320" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Cook" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
     <sheet name="will" sheetId="7" r:id="rId8"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Cook!$A$1:$F$150</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Cook!$A$1:$G$150</definedName>
     <definedName name="Export_Output_2" localSheetId="0">Cook!$A$1:$E$134</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -1148,21 +1148,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1447,49 +1440,49 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G164"/>
+  <dimension ref="A1:G150"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C134" sqref="C134"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="C28" sqref="C28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.42578125" style="4" customWidth="1"/>
-    <col min="3" max="3" width="80.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.44140625" customWidth="1"/>
+    <col min="3" max="3" width="80.6640625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="34.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="34.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="10" t="s">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="10" t="s">
+      <c r="B1" s="3" t="s">
         <v>310</v>
       </c>
-      <c r="C1" s="10" t="s">
+      <c r="C1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="10" t="s">
+      <c r="D1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="10" t="s">
+      <c r="E1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="10" t="s">
+      <c r="F1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="10" t="s">
+      <c r="G1" s="3" t="s">
         <v>311</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>0</v>
       </c>
-      <c r="B2" s="4" t="str">
+      <c r="B2" t="str">
         <f>TEXT(A2,"000")</f>
         <v>000</v>
       </c>
@@ -1509,11 +1502,11 @@
         <v>177</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>100</v>
       </c>
-      <c r="B3" s="4" t="str">
+      <c r="B3" t="str">
         <f t="shared" ref="B3:B66" si="0">TEXT(A3,"000")</f>
         <v>100</v>
       </c>
@@ -1529,15 +1522,15 @@
       <c r="F3">
         <v>0.1</v>
       </c>
-      <c r="G3" s="4" t="s">
+      <c r="G3" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>190</v>
       </c>
-      <c r="B4" s="4" t="str">
+      <c r="B4" t="str">
         <f t="shared" si="0"/>
         <v>190</v>
       </c>
@@ -1553,15 +1546,15 @@
       <c r="F4">
         <v>0.1</v>
       </c>
-      <c r="G4" s="4" t="s">
+      <c r="G4" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>200</v>
       </c>
-      <c r="B5" s="4" t="str">
+      <c r="B5" t="str">
         <f t="shared" si="0"/>
         <v>200</v>
       </c>
@@ -1577,15 +1570,15 @@
       <c r="F5">
         <v>0.1</v>
       </c>
-      <c r="G5" s="4" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G5" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>201</v>
       </c>
-      <c r="B6" s="4" t="str">
+      <c r="B6" t="str">
         <f t="shared" si="0"/>
         <v>201</v>
       </c>
@@ -1601,15 +1594,15 @@
       <c r="F6">
         <v>0.1</v>
       </c>
-      <c r="G6" s="4" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G6" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>202</v>
       </c>
-      <c r="B7" s="4" t="str">
+      <c r="B7" t="str">
         <f t="shared" si="0"/>
         <v>202</v>
       </c>
@@ -1625,15 +1618,15 @@
       <c r="F7">
         <v>0.1</v>
       </c>
-      <c r="G7" s="4" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G7" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>203</v>
       </c>
-      <c r="B8" s="4" t="str">
+      <c r="B8" t="str">
         <f t="shared" si="0"/>
         <v>203</v>
       </c>
@@ -1649,15 +1642,15 @@
       <c r="F8">
         <v>0.1</v>
       </c>
-      <c r="G8" s="4" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G8" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>204</v>
       </c>
-      <c r="B9" s="4" t="str">
+      <c r="B9" t="str">
         <f t="shared" si="0"/>
         <v>204</v>
       </c>
@@ -1673,15 +1666,15 @@
       <c r="F9">
         <v>0.1</v>
       </c>
-      <c r="G9" s="4" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G9" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>205</v>
       </c>
-      <c r="B10" s="4" t="str">
+      <c r="B10" t="str">
         <f t="shared" si="0"/>
         <v>205</v>
       </c>
@@ -1697,15 +1690,15 @@
       <c r="F10">
         <v>0.1</v>
       </c>
-      <c r="G10" s="4" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G10" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>206</v>
       </c>
-      <c r="B11" s="4" t="str">
+      <c r="B11" t="str">
         <f t="shared" si="0"/>
         <v>206</v>
       </c>
@@ -1721,15 +1714,15 @@
       <c r="F11">
         <v>0.1</v>
       </c>
-      <c r="G11" s="4" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G11" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>207</v>
       </c>
-      <c r="B12" s="4" t="str">
+      <c r="B12" t="str">
         <f t="shared" si="0"/>
         <v>207</v>
       </c>
@@ -1745,15 +1738,15 @@
       <c r="F12">
         <v>0.1</v>
       </c>
-      <c r="G12" s="4" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G12" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>208</v>
       </c>
-      <c r="B13" s="4" t="str">
+      <c r="B13" t="str">
         <f t="shared" si="0"/>
         <v>208</v>
       </c>
@@ -1769,15 +1762,15 @@
       <c r="F13">
         <v>0.1</v>
       </c>
-      <c r="G13" s="4" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G13" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>209</v>
       </c>
-      <c r="B14" s="4" t="str">
+      <c r="B14" t="str">
         <f t="shared" si="0"/>
         <v>209</v>
       </c>
@@ -1793,15 +1786,15 @@
       <c r="F14">
         <v>0.1</v>
       </c>
-      <c r="G14" s="4" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G14" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>210</v>
       </c>
-      <c r="B15" s="4" t="str">
+      <c r="B15" t="str">
         <f t="shared" si="0"/>
         <v>210</v>
       </c>
@@ -1817,15 +1810,15 @@
       <c r="F15">
         <v>0.1</v>
       </c>
-      <c r="G15" s="4" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G15" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>211</v>
       </c>
-      <c r="B16" s="4" t="str">
+      <c r="B16" t="str">
         <f t="shared" si="0"/>
         <v>211</v>
       </c>
@@ -1841,15 +1834,15 @@
       <c r="F16">
         <v>0.1</v>
       </c>
-      <c r="G16" s="4" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G16" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>212</v>
       </c>
-      <c r="B17" s="4" t="str">
+      <c r="B17" t="str">
         <f t="shared" si="0"/>
         <v>212</v>
       </c>
@@ -1865,15 +1858,15 @@
       <c r="F17">
         <v>0.1</v>
       </c>
-      <c r="G17" s="4" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G17" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>213</v>
       </c>
-      <c r="B18" s="4" t="str">
+      <c r="B18" t="str">
         <f t="shared" si="0"/>
         <v>213</v>
       </c>
@@ -1889,15 +1882,15 @@
       <c r="F18">
         <v>0.1</v>
       </c>
-      <c r="G18" s="4" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19" s="1">
+      <c r="G18" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A19">
         <v>218</v>
       </c>
-      <c r="B19" s="4" t="str">
+      <c r="B19" t="str">
         <f t="shared" si="0"/>
         <v>218</v>
       </c>
@@ -1913,15 +1906,15 @@
       <c r="F19">
         <v>0.1</v>
       </c>
-      <c r="G19" s="4" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A20" s="1">
+      <c r="G19" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A20">
         <v>219</v>
       </c>
-      <c r="B20" s="4" t="str">
+      <c r="B20" t="str">
         <f t="shared" si="0"/>
         <v>219</v>
       </c>
@@ -1937,15 +1930,15 @@
       <c r="F20">
         <v>0.1</v>
       </c>
-      <c r="G20" s="4" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G20" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>224</v>
       </c>
-      <c r="B21" s="4" t="str">
+      <c r="B21" t="str">
         <f t="shared" si="0"/>
         <v>224</v>
       </c>
@@ -1961,15 +1954,15 @@
       <c r="F21">
         <v>0.1</v>
       </c>
-      <c r="G21" s="4" t="s">
+      <c r="G21" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>225</v>
       </c>
-      <c r="B22" s="4" t="str">
+      <c r="B22" t="str">
         <f t="shared" si="0"/>
         <v>225</v>
       </c>
@@ -1985,15 +1978,15 @@
       <c r="F22">
         <v>0.1</v>
       </c>
-      <c r="G22" s="4" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G22" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>234</v>
       </c>
-      <c r="B23" s="4" t="str">
+      <c r="B23" t="str">
         <f t="shared" si="0"/>
         <v>234</v>
       </c>
@@ -2009,15 +2002,15 @@
       <c r="F23">
         <v>0.1</v>
       </c>
-      <c r="G23" s="4" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G23" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>239</v>
       </c>
-      <c r="B24" s="4" t="str">
+      <c r="B24" t="str">
         <f t="shared" si="0"/>
         <v>239</v>
       </c>
@@ -2033,15 +2026,15 @@
       <c r="F24">
         <v>0.1</v>
       </c>
-      <c r="G24" s="4" t="s">
+      <c r="G24" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>241</v>
       </c>
-      <c r="B25" s="4" t="str">
+      <c r="B25" t="str">
         <f t="shared" si="0"/>
         <v>241</v>
       </c>
@@ -2057,15 +2050,15 @@
       <c r="F25">
         <v>0.1</v>
       </c>
-      <c r="G25" s="4" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G25" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>278</v>
       </c>
-      <c r="B26" s="4" t="str">
+      <c r="B26" t="str">
         <f t="shared" si="0"/>
         <v>278</v>
       </c>
@@ -2081,15 +2074,15 @@
       <c r="F26">
         <v>0.1</v>
       </c>
-      <c r="G26" s="4" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G26" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>288</v>
       </c>
-      <c r="B27" s="4" t="str">
+      <c r="B27" t="str">
         <f t="shared" si="0"/>
         <v>288</v>
       </c>
@@ -2105,15 +2098,15 @@
       <c r="F27">
         <v>0.1</v>
       </c>
-      <c r="G27" s="4" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G27" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>290</v>
       </c>
-      <c r="B28" s="4" t="str">
+      <c r="B28" t="str">
         <f t="shared" si="0"/>
         <v>290</v>
       </c>
@@ -2129,15 +2122,15 @@
       <c r="F28">
         <v>0.1</v>
       </c>
-      <c r="G28" s="4" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G28" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>295</v>
       </c>
-      <c r="B29" s="4" t="str">
+      <c r="B29" t="str">
         <f t="shared" si="0"/>
         <v>295</v>
       </c>
@@ -2153,15 +2146,15 @@
       <c r="F29">
         <v>0.1</v>
       </c>
-      <c r="G29" s="4" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G29" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>297</v>
       </c>
-      <c r="B30" s="4" t="str">
+      <c r="B30" t="str">
         <f t="shared" si="0"/>
         <v>297</v>
       </c>
@@ -2177,15 +2170,15 @@
       <c r="F30">
         <v>0.1</v>
       </c>
-      <c r="G30" s="4" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G30" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>299</v>
       </c>
-      <c r="B31" s="4" t="str">
+      <c r="B31" t="str">
         <f t="shared" si="0"/>
         <v>299</v>
       </c>
@@ -2201,15 +2194,15 @@
       <c r="F31">
         <v>0.1</v>
       </c>
-      <c r="G31" s="4" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A32" s="1">
+      <c r="G31" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A32">
         <v>300</v>
       </c>
-      <c r="B32" s="4" t="str">
+      <c r="B32" t="str">
         <f t="shared" si="0"/>
         <v>300</v>
       </c>
@@ -2225,15 +2218,15 @@
       <c r="F32">
         <v>0.1</v>
       </c>
-      <c r="G32" s="4" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G32" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>301</v>
       </c>
-      <c r="B33" s="4" t="str">
+      <c r="B33" t="str">
         <f t="shared" si="0"/>
         <v>301</v>
       </c>
@@ -2249,15 +2242,15 @@
       <c r="F33">
         <v>0.1</v>
       </c>
-      <c r="G33" s="4" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G33" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>313</v>
       </c>
-      <c r="B34" s="4" t="str">
+      <c r="B34" t="str">
         <f t="shared" si="0"/>
         <v>313</v>
       </c>
@@ -2273,15 +2266,15 @@
       <c r="F34">
         <v>0.1</v>
       </c>
-      <c r="G34" s="4" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G34" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>314</v>
       </c>
-      <c r="B35" s="4" t="str">
+      <c r="B35" t="str">
         <f t="shared" si="0"/>
         <v>314</v>
       </c>
@@ -2297,15 +2290,15 @@
       <c r="F35">
         <v>0.1</v>
       </c>
-      <c r="G35" s="4" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G35" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>315</v>
       </c>
-      <c r="B36" s="4" t="str">
+      <c r="B36" t="str">
         <f t="shared" si="0"/>
         <v>315</v>
       </c>
@@ -2321,15 +2314,15 @@
       <c r="F36">
         <v>0.1</v>
       </c>
-      <c r="G36" s="4" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G36" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>318</v>
       </c>
-      <c r="B37" s="4" t="str">
+      <c r="B37" t="str">
         <f t="shared" si="0"/>
         <v>318</v>
       </c>
@@ -2345,15 +2338,15 @@
       <c r="F37">
         <v>0.1</v>
       </c>
-      <c r="G37" s="4" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A38" s="1">
+      <c r="G37" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A38">
         <v>319</v>
       </c>
-      <c r="B38" s="4" t="str">
+      <c r="B38" t="str">
         <f t="shared" si="0"/>
         <v>319</v>
       </c>
@@ -2369,15 +2362,15 @@
       <c r="F38">
         <v>0.1</v>
       </c>
-      <c r="G38" s="4" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G38" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>390</v>
       </c>
-      <c r="B39" s="4" t="str">
+      <c r="B39" t="str">
         <f t="shared" si="0"/>
         <v>390</v>
       </c>
@@ -2393,15 +2386,15 @@
       <c r="F39">
         <v>0.1</v>
       </c>
-      <c r="G39" s="4" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G39" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>391</v>
       </c>
-      <c r="B40" s="4" t="str">
+      <c r="B40" t="str">
         <f t="shared" si="0"/>
         <v>391</v>
       </c>
@@ -2417,15 +2410,15 @@
       <c r="F40">
         <v>0.1</v>
       </c>
-      <c r="G40" s="4" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G40" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>396</v>
       </c>
-      <c r="B41" s="4" t="str">
+      <c r="B41" t="str">
         <f t="shared" si="0"/>
         <v>396</v>
       </c>
@@ -2441,15 +2434,15 @@
       <c r="F41">
         <v>0.1</v>
       </c>
-      <c r="G41" s="4" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G41" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>397</v>
       </c>
-      <c r="B42" s="4" t="str">
+      <c r="B42" t="str">
         <f t="shared" si="0"/>
         <v>397</v>
       </c>
@@ -2465,15 +2458,15 @@
       <c r="F42">
         <v>0.1</v>
       </c>
-      <c r="G42" s="4" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G42" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>399</v>
       </c>
-      <c r="B43" s="4" t="str">
+      <c r="B43" t="str">
         <f t="shared" si="0"/>
         <v>399</v>
       </c>
@@ -2489,15 +2482,15 @@
       <c r="F43">
         <v>0.1</v>
       </c>
-      <c r="G43" s="4" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G43" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>401</v>
       </c>
-      <c r="B44" s="4" t="str">
+      <c r="B44" t="str">
         <f t="shared" si="0"/>
         <v>401</v>
       </c>
@@ -2513,15 +2506,15 @@
       <c r="F44">
         <v>0.2</v>
       </c>
-      <c r="G44" s="4" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G44" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A45">
         <v>417</v>
       </c>
-      <c r="B45" s="4" t="str">
+      <c r="B45" t="str">
         <f t="shared" si="0"/>
         <v>417</v>
       </c>
@@ -2531,21 +2524,21 @@
       <c r="D45">
         <v>4</v>
       </c>
-      <c r="E45" s="4" t="s">
+      <c r="E45" t="s">
         <v>179</v>
       </c>
-      <c r="F45" s="4">
+      <c r="F45">
         <v>0.2</v>
       </c>
-      <c r="G45" s="4" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G45" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A46">
         <v>418</v>
       </c>
-      <c r="B46" s="4" t="str">
+      <c r="B46" t="str">
         <f t="shared" si="0"/>
         <v>418</v>
       </c>
@@ -2555,21 +2548,21 @@
       <c r="D46">
         <v>4</v>
       </c>
-      <c r="E46" s="4" t="s">
+      <c r="E46" t="s">
         <v>179</v>
       </c>
-      <c r="F46" s="4">
+      <c r="F46">
         <v>0.2</v>
       </c>
-      <c r="G46" s="4" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G46" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A47">
         <v>422</v>
       </c>
-      <c r="B47" s="4" t="str">
+      <c r="B47" t="str">
         <f t="shared" si="0"/>
         <v>422</v>
       </c>
@@ -2579,21 +2572,21 @@
       <c r="D47">
         <v>4</v>
       </c>
-      <c r="E47" s="4" t="s">
+      <c r="E47" t="s">
         <v>179</v>
       </c>
-      <c r="F47" s="4">
+      <c r="F47">
         <v>0.2</v>
       </c>
-      <c r="G47" s="4" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A48" s="1">
+      <c r="G47" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A48">
         <v>427</v>
       </c>
-      <c r="B48" s="4" t="str">
+      <c r="B48" t="str">
         <f t="shared" si="0"/>
         <v>427</v>
       </c>
@@ -2603,21 +2596,21 @@
       <c r="D48">
         <v>4</v>
       </c>
-      <c r="E48" s="4" t="s">
+      <c r="E48" t="s">
         <v>179</v>
       </c>
-      <c r="F48" s="4">
+      <c r="F48">
         <v>0.2</v>
       </c>
-      <c r="G48" s="4" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G48" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A49">
         <v>428</v>
       </c>
-      <c r="B49" s="4" t="str">
+      <c r="B49" t="str">
         <f t="shared" si="0"/>
         <v>428</v>
       </c>
@@ -2627,21 +2620,21 @@
       <c r="D49">
         <v>4</v>
       </c>
-      <c r="E49" s="4" t="s">
+      <c r="E49" t="s">
         <v>179</v>
       </c>
-      <c r="F49" s="4">
+      <c r="F49">
         <v>0.2</v>
       </c>
-      <c r="G49" s="4" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G49" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A50">
         <v>430</v>
       </c>
-      <c r="B50" s="4" t="str">
+      <c r="B50" t="str">
         <f t="shared" si="0"/>
         <v>430</v>
       </c>
@@ -2651,21 +2644,21 @@
       <c r="D50">
         <v>4</v>
       </c>
-      <c r="E50" s="4" t="s">
+      <c r="E50" t="s">
         <v>179</v>
       </c>
-      <c r="F50" s="4">
+      <c r="F50">
         <v>0.2</v>
       </c>
-      <c r="G50" s="4" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G50" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A51">
         <v>435</v>
       </c>
-      <c r="B51" s="4" t="str">
+      <c r="B51" t="str">
         <f t="shared" si="0"/>
         <v>435</v>
       </c>
@@ -2675,21 +2668,21 @@
       <c r="D51">
         <v>4</v>
       </c>
-      <c r="E51" s="4" t="s">
+      <c r="E51" t="s">
         <v>179</v>
       </c>
-      <c r="F51" s="4">
+      <c r="F51">
         <v>0.2</v>
       </c>
-      <c r="G51" s="4" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G51" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A52">
         <v>480</v>
       </c>
-      <c r="B52" s="4" t="str">
+      <c r="B52" t="str">
         <f t="shared" si="0"/>
         <v>480</v>
       </c>
@@ -2699,21 +2692,21 @@
       <c r="D52">
         <v>4</v>
       </c>
-      <c r="E52" s="4" t="s">
+      <c r="E52" t="s">
         <v>179</v>
       </c>
-      <c r="F52" s="4">
+      <c r="F52">
         <v>0.2</v>
       </c>
-      <c r="G52" s="4" t="s">
+      <c r="G52" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A53">
         <v>483</v>
       </c>
-      <c r="B53" s="4" t="str">
+      <c r="B53" t="str">
         <f t="shared" si="0"/>
         <v>483</v>
       </c>
@@ -2723,21 +2716,21 @@
       <c r="D53">
         <v>4</v>
       </c>
-      <c r="E53" s="4" t="s">
+      <c r="E53" t="s">
         <v>179</v>
       </c>
-      <c r="F53" s="4">
+      <c r="F53">
         <v>0.2</v>
       </c>
-      <c r="G53" s="4" t="s">
+      <c r="G53" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A54">
         <v>490</v>
       </c>
-      <c r="B54" s="4" t="str">
+      <c r="B54" t="str">
         <f t="shared" si="0"/>
         <v>490</v>
       </c>
@@ -2747,21 +2740,21 @@
       <c r="D54">
         <v>4</v>
       </c>
-      <c r="E54" s="4" t="s">
+      <c r="E54" t="s">
         <v>179</v>
       </c>
-      <c r="F54" s="4">
+      <c r="F54">
         <v>0.2</v>
       </c>
-      <c r="G54" s="4" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G54" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A55">
         <v>491</v>
       </c>
-      <c r="B55" s="4" t="str">
+      <c r="B55" t="str">
         <f t="shared" si="0"/>
         <v>491</v>
       </c>
@@ -2771,21 +2764,21 @@
       <c r="D55">
         <v>4</v>
       </c>
-      <c r="E55" s="4" t="s">
+      <c r="E55" t="s">
         <v>179</v>
       </c>
-      <c r="F55" s="4">
+      <c r="F55">
         <v>0.2</v>
       </c>
-      <c r="G55" s="4" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G55" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A56">
         <v>492</v>
       </c>
-      <c r="B56" s="4" t="str">
+      <c r="B56" t="str">
         <f t="shared" si="0"/>
         <v>492</v>
       </c>
@@ -2795,21 +2788,21 @@
       <c r="D56">
         <v>4</v>
       </c>
-      <c r="E56" s="4" t="s">
+      <c r="E56" t="s">
         <v>179</v>
       </c>
-      <c r="F56" s="4">
+      <c r="F56">
         <v>0.2</v>
       </c>
-      <c r="G56" s="4" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G56" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A57">
         <v>493</v>
       </c>
-      <c r="B57" s="4" t="str">
+      <c r="B57" t="str">
         <f t="shared" si="0"/>
         <v>493</v>
       </c>
@@ -2819,21 +2812,21 @@
       <c r="D57">
         <v>4</v>
       </c>
-      <c r="E57" s="4" t="s">
+      <c r="E57" t="s">
         <v>179</v>
       </c>
-      <c r="F57" s="4">
+      <c r="F57">
         <v>0.2</v>
       </c>
-      <c r="G57" s="4" t="s">
+      <c r="G57" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A58">
         <v>497</v>
       </c>
-      <c r="B58" s="4" t="str">
+      <c r="B58" t="str">
         <f t="shared" si="0"/>
         <v>497</v>
       </c>
@@ -2843,21 +2836,21 @@
       <c r="D58">
         <v>4</v>
       </c>
-      <c r="E58" s="4" t="s">
+      <c r="E58" t="s">
         <v>179</v>
       </c>
-      <c r="F58" s="4">
+      <c r="F58">
         <v>0.2</v>
       </c>
-      <c r="G58" s="4" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G58" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A59">
         <v>499</v>
       </c>
-      <c r="B59" s="4" t="str">
+      <c r="B59" t="str">
         <f t="shared" si="0"/>
         <v>499</v>
       </c>
@@ -2867,21 +2860,21 @@
       <c r="D59">
         <v>4</v>
       </c>
-      <c r="E59" s="4" t="s">
+      <c r="E59" t="s">
         <v>179</v>
       </c>
-      <c r="F59" s="4">
+      <c r="F59">
         <v>0.2</v>
       </c>
-      <c r="G59" s="4" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G59" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A60">
         <v>500</v>
       </c>
-      <c r="B60" s="4" t="str">
+      <c r="B60" t="str">
         <f t="shared" si="0"/>
         <v>500</v>
       </c>
@@ -2897,15 +2890,15 @@
       <c r="F60">
         <v>0.25</v>
       </c>
-      <c r="G60" s="4" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G60" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A61">
         <v>501</v>
       </c>
-      <c r="B61" s="4" t="str">
+      <c r="B61" t="str">
         <f t="shared" si="0"/>
         <v>501</v>
       </c>
@@ -2921,15 +2914,15 @@
       <c r="F61">
         <v>0.25</v>
       </c>
-      <c r="G61" s="4" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G61" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A62">
         <v>516</v>
       </c>
-      <c r="B62" s="4" t="str">
+      <c r="B62" t="str">
         <f t="shared" si="0"/>
         <v>516</v>
       </c>
@@ -2945,15 +2938,15 @@
       <c r="F62">
         <v>0.25</v>
       </c>
-      <c r="G62" s="4" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G62" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A63">
         <v>517</v>
       </c>
-      <c r="B63" s="4" t="str">
+      <c r="B63" t="str">
         <f t="shared" si="0"/>
         <v>517</v>
       </c>
@@ -2969,15 +2962,15 @@
       <c r="F63">
         <v>0.25</v>
       </c>
-      <c r="G63" s="4" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G63" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A64">
         <v>522</v>
       </c>
-      <c r="B64" s="4" t="str">
+      <c r="B64" t="str">
         <f t="shared" si="0"/>
         <v>522</v>
       </c>
@@ -2993,15 +2986,15 @@
       <c r="F64">
         <v>0.25</v>
       </c>
-      <c r="G64" s="4" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G64" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A65">
         <v>523</v>
       </c>
-      <c r="B65" s="4" t="str">
+      <c r="B65" t="str">
         <f t="shared" si="0"/>
         <v>523</v>
       </c>
@@ -3017,15 +3010,15 @@
       <c r="F65">
         <v>0.25</v>
       </c>
-      <c r="G65" s="4" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G65" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A66">
         <v>526</v>
       </c>
-      <c r="B66" s="4" t="str">
+      <c r="B66" t="str">
         <f t="shared" si="0"/>
         <v>526</v>
       </c>
@@ -3041,15 +3034,15 @@
       <c r="F66">
         <v>0.25</v>
       </c>
-      <c r="G66" s="4" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G66" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A67">
         <v>527</v>
       </c>
-      <c r="B67" s="4" t="str">
+      <c r="B67" t="str">
         <f t="shared" ref="B67:B130" si="1">TEXT(A67,"000")</f>
         <v>527</v>
       </c>
@@ -3065,15 +3058,15 @@
       <c r="F67">
         <v>0.25</v>
       </c>
-      <c r="G67" s="4" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G67" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A68">
         <v>528</v>
       </c>
-      <c r="B68" s="4" t="str">
+      <c r="B68" t="str">
         <f t="shared" si="1"/>
         <v>528</v>
       </c>
@@ -3089,15 +3082,15 @@
       <c r="F68">
         <v>0.25</v>
       </c>
-      <c r="G68" s="4" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G68" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A69">
         <v>529</v>
       </c>
-      <c r="B69" s="4" t="str">
+      <c r="B69" t="str">
         <f t="shared" si="1"/>
         <v>529</v>
       </c>
@@ -3113,15 +3106,15 @@
       <c r="F69">
         <v>0.25</v>
       </c>
-      <c r="G69" s="4" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G69" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A70">
         <v>530</v>
       </c>
-      <c r="B70" s="4" t="str">
+      <c r="B70" t="str">
         <f t="shared" si="1"/>
         <v>530</v>
       </c>
@@ -3137,15 +3130,15 @@
       <c r="F70">
         <v>0.25</v>
       </c>
-      <c r="G70" s="4" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G70" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A71">
         <v>531</v>
       </c>
-      <c r="B71" s="4" t="str">
+      <c r="B71" t="str">
         <f t="shared" si="1"/>
         <v>531</v>
       </c>
@@ -3161,15 +3154,15 @@
       <c r="F71">
         <v>0.25</v>
       </c>
-      <c r="G71" s="4" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G71" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A72">
         <v>532</v>
       </c>
-      <c r="B72" s="4" t="str">
+      <c r="B72" t="str">
         <f t="shared" si="1"/>
         <v>532</v>
       </c>
@@ -3185,15 +3178,15 @@
       <c r="F72">
         <v>0.25</v>
       </c>
-      <c r="G72" s="4" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G72" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A73">
         <v>533</v>
       </c>
-      <c r="B73" s="4" t="str">
+      <c r="B73" t="str">
         <f t="shared" si="1"/>
         <v>533</v>
       </c>
@@ -3209,15 +3202,15 @@
       <c r="F73">
         <v>0.25</v>
       </c>
-      <c r="G73" s="4" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G73" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A74">
         <v>535</v>
       </c>
-      <c r="B74" s="4" t="str">
+      <c r="B74" t="str">
         <f t="shared" si="1"/>
         <v>535</v>
       </c>
@@ -3233,15 +3226,15 @@
       <c r="F74">
         <v>0.25</v>
       </c>
-      <c r="G74" s="4" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G74" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A75">
         <v>550</v>
       </c>
-      <c r="B75" s="4" t="str">
+      <c r="B75" t="str">
         <f t="shared" si="1"/>
         <v>550</v>
       </c>
@@ -3257,15 +3250,15 @@
       <c r="F75">
         <v>0.25</v>
       </c>
-      <c r="G75" s="4" t="s">
+      <c r="G75" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A76">
         <v>580</v>
       </c>
-      <c r="B76" s="4" t="str">
+      <c r="B76" t="str">
         <f t="shared" si="1"/>
         <v>580</v>
       </c>
@@ -3281,15 +3274,15 @@
       <c r="F76">
         <v>0.25</v>
       </c>
-      <c r="G76" s="4" t="s">
+      <c r="G76" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A77">
         <v>581</v>
       </c>
-      <c r="B77" s="4" t="str">
+      <c r="B77" t="str">
         <f t="shared" si="1"/>
         <v>581</v>
       </c>
@@ -3305,15 +3298,15 @@
       <c r="F77">
         <v>0.25</v>
       </c>
-      <c r="G77" s="4" t="s">
+      <c r="G77" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A78">
         <v>583</v>
       </c>
-      <c r="B78" s="4" t="str">
+      <c r="B78" t="str">
         <f t="shared" si="1"/>
         <v>583</v>
       </c>
@@ -3329,15 +3322,15 @@
       <c r="F78">
         <v>0.25</v>
       </c>
-      <c r="G78" s="4" t="s">
+      <c r="G78" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A79">
         <v>587</v>
       </c>
-      <c r="B79" s="4" t="str">
+      <c r="B79" t="str">
         <f t="shared" si="1"/>
         <v>587</v>
       </c>
@@ -3353,15 +3346,15 @@
       <c r="F79">
         <v>0.25</v>
       </c>
-      <c r="G79" s="4" t="s">
+      <c r="G79" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A80">
         <v>589</v>
       </c>
-      <c r="B80" s="4" t="str">
+      <c r="B80" t="str">
         <f t="shared" si="1"/>
         <v>589</v>
       </c>
@@ -3377,15 +3370,15 @@
       <c r="F80">
         <v>0.25</v>
       </c>
-      <c r="G80" s="4" t="s">
+      <c r="G80" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A81">
         <v>590</v>
       </c>
-      <c r="B81" s="4" t="str">
+      <c r="B81" t="str">
         <f t="shared" si="1"/>
         <v>590</v>
       </c>
@@ -3401,15 +3394,15 @@
       <c r="F81">
         <v>0.25</v>
       </c>
-      <c r="G81" s="4" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G81" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A82">
         <v>591</v>
       </c>
-      <c r="B82" s="4" t="str">
+      <c r="B82" t="str">
         <f t="shared" si="1"/>
         <v>591</v>
       </c>
@@ -3425,15 +3418,15 @@
       <c r="F82">
         <v>0.25</v>
       </c>
-      <c r="G82" s="4" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G82" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A83">
         <v>592</v>
       </c>
-      <c r="B83" s="4" t="str">
+      <c r="B83" t="str">
         <f t="shared" si="1"/>
         <v>592</v>
       </c>
@@ -3449,15 +3442,15 @@
       <c r="F83">
         <v>0.25</v>
       </c>
-      <c r="G83" s="4" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G83" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A84">
         <v>593</v>
       </c>
-      <c r="B84" s="4" t="str">
+      <c r="B84" t="str">
         <f t="shared" si="1"/>
         <v>593</v>
       </c>
@@ -3473,15 +3466,15 @@
       <c r="F84">
         <v>0.25</v>
       </c>
-      <c r="G84" s="4" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G84" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A85">
         <v>597</v>
       </c>
-      <c r="B85" s="4" t="str">
+      <c r="B85" t="str">
         <f t="shared" si="1"/>
         <v>597</v>
       </c>
@@ -3497,15 +3490,15 @@
       <c r="F85">
         <v>0.25</v>
       </c>
-      <c r="G85" s="4" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G85" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A86">
         <v>599</v>
       </c>
-      <c r="B86" s="4" t="str">
+      <c r="B86" t="str">
         <f t="shared" si="1"/>
         <v>599</v>
       </c>
@@ -3521,15 +3514,15 @@
       <c r="F86">
         <v>0.25</v>
       </c>
-      <c r="G86" s="4" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G86" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A87">
         <v>637</v>
       </c>
-      <c r="B87" s="4" t="str">
+      <c r="B87" t="str">
         <f t="shared" si="1"/>
         <v>637</v>
       </c>
@@ -3545,15 +3538,15 @@
       <c r="F87">
         <v>0.1</v>
       </c>
-      <c r="G87" s="4" t="s">
+      <c r="G87" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A88">
         <v>638</v>
       </c>
-      <c r="B88" s="4" t="str">
+      <c r="B88" t="str">
         <f t="shared" si="1"/>
         <v>638</v>
       </c>
@@ -3569,15 +3562,15 @@
       <c r="F88">
         <v>0.1</v>
       </c>
-      <c r="G88" s="4" t="s">
+      <c r="G88" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A89">
         <v>654</v>
       </c>
-      <c r="B89" s="4" t="str">
+      <c r="B89" t="str">
         <f t="shared" si="1"/>
         <v>654</v>
       </c>
@@ -3593,15 +3586,15 @@
       <c r="F89">
         <v>0.1</v>
       </c>
-      <c r="G89" s="4" t="s">
+      <c r="G89" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A90">
         <v>655</v>
       </c>
-      <c r="B90" s="4" t="str">
+      <c r="B90" t="str">
         <f t="shared" si="1"/>
         <v>655</v>
       </c>
@@ -3617,15 +3610,15 @@
       <c r="F90">
         <v>0.1</v>
       </c>
-      <c r="G90" s="4" t="s">
+      <c r="G90" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A91">
         <v>663</v>
       </c>
-      <c r="B91" s="4" t="str">
+      <c r="B91" t="str">
         <f t="shared" si="1"/>
         <v>663</v>
       </c>
@@ -3641,15 +3634,15 @@
       <c r="F91">
         <v>0.108333</v>
       </c>
-      <c r="G91" s="4" t="s">
+      <c r="G91" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A92">
         <v>668</v>
       </c>
-      <c r="B92" s="4" t="str">
+      <c r="B92" t="str">
         <f t="shared" si="1"/>
         <v>668</v>
       </c>
@@ -3665,15 +3658,15 @@
       <c r="F92">
         <v>0.1</v>
       </c>
-      <c r="G92" s="4" t="s">
+      <c r="G92" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A93">
         <v>670</v>
       </c>
-      <c r="B93" s="4" t="str">
+      <c r="B93" t="str">
         <f t="shared" si="1"/>
         <v>670</v>
       </c>
@@ -3689,15 +3682,15 @@
       <c r="F93">
         <v>0.108333</v>
       </c>
-      <c r="G93" s="4" t="s">
+      <c r="G93" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A94">
         <v>671</v>
       </c>
-      <c r="B94" s="4" t="str">
+      <c r="B94" t="str">
         <f t="shared" si="1"/>
         <v>671</v>
       </c>
@@ -3713,15 +3706,15 @@
       <c r="F94">
         <v>0.108333</v>
       </c>
-      <c r="G94" s="4" t="s">
+      <c r="G94" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A95">
         <v>673</v>
       </c>
-      <c r="B95" s="4" t="str">
+      <c r="B95" t="str">
         <f t="shared" si="1"/>
         <v>673</v>
       </c>
@@ -3737,15 +3730,15 @@
       <c r="F95">
         <v>0.108333</v>
       </c>
-      <c r="G95" s="4" t="s">
+      <c r="G95" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="96" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A96">
         <v>677</v>
       </c>
-      <c r="B96" s="4" t="str">
+      <c r="B96" t="str">
         <f t="shared" si="1"/>
         <v>677</v>
       </c>
@@ -3761,15 +3754,15 @@
       <c r="F96">
         <v>0.108333</v>
       </c>
-      <c r="G96" s="4" t="s">
+      <c r="G96" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="97" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A97">
         <v>679</v>
       </c>
-      <c r="B97" s="4" t="str">
+      <c r="B97" t="str">
         <f t="shared" si="1"/>
         <v>679</v>
       </c>
@@ -3785,15 +3778,15 @@
       <c r="F97">
         <v>0.108333</v>
       </c>
-      <c r="G97" s="4" t="s">
+      <c r="G97" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="98" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A98">
         <v>680</v>
       </c>
-      <c r="B98" s="4" t="str">
+      <c r="B98" t="str">
         <f t="shared" si="1"/>
         <v>680</v>
       </c>
@@ -3809,15 +3802,15 @@
       <c r="F98">
         <v>0.2</v>
       </c>
-      <c r="G98" s="4" t="s">
+      <c r="G98" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="99" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A99" s="1">
+    <row r="99" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A99">
         <v>683</v>
       </c>
-      <c r="B99" s="4" t="str">
+      <c r="B99" t="str">
         <f t="shared" si="1"/>
         <v>683</v>
       </c>
@@ -3833,15 +3826,15 @@
       <c r="F99">
         <v>0.2</v>
       </c>
-      <c r="G99" s="4" t="s">
+      <c r="G99" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="100" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A100" s="1">
+    <row r="100" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A100">
         <v>687</v>
       </c>
-      <c r="B100" s="4" t="str">
+      <c r="B100" t="str">
         <f t="shared" si="1"/>
         <v>687</v>
       </c>
@@ -3857,15 +3850,15 @@
       <c r="F100">
         <v>0.2</v>
       </c>
-      <c r="G100" s="4" t="s">
+      <c r="G100" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="101" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A101">
         <v>693</v>
       </c>
-      <c r="B101" s="4" t="str">
+      <c r="B101" t="str">
         <f t="shared" si="1"/>
         <v>693</v>
       </c>
@@ -3881,15 +3874,15 @@
       <c r="F101">
         <v>0.2</v>
       </c>
-      <c r="G101" s="4" t="s">
+      <c r="G101" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="102" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A102">
         <v>717</v>
       </c>
-      <c r="B102" s="4" t="str">
+      <c r="B102" t="str">
         <f t="shared" si="1"/>
         <v>717</v>
       </c>
@@ -3905,15 +3898,15 @@
       <c r="F102">
         <v>0.101743</v>
       </c>
-      <c r="G102" s="4" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="103" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A103" s="1">
+      <c r="G102" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A103">
         <v>722</v>
       </c>
-      <c r="B103" s="4" t="str">
+      <c r="B103" t="str">
         <f t="shared" si="1"/>
         <v>722</v>
       </c>
@@ -3929,15 +3922,15 @@
       <c r="F103">
         <v>0.101743</v>
       </c>
-      <c r="G103" s="4" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="104" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G103" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A104">
         <v>723</v>
       </c>
-      <c r="B104" s="4" t="str">
+      <c r="B104" t="str">
         <f t="shared" si="1"/>
         <v>723</v>
       </c>
@@ -3953,15 +3946,15 @@
       <c r="F104">
         <v>0.101743</v>
       </c>
-      <c r="G104" s="4" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="105" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G104" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="105" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A105">
         <v>728</v>
       </c>
-      <c r="B105" s="4" t="str">
+      <c r="B105" t="str">
         <f t="shared" si="1"/>
         <v>728</v>
       </c>
@@ -3977,15 +3970,15 @@
       <c r="F105">
         <v>0.101743</v>
       </c>
-      <c r="G105" s="4" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="106" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G105" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="106" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A106">
         <v>729</v>
       </c>
-      <c r="B106" s="4" t="str">
+      <c r="B106" t="str">
         <f t="shared" si="1"/>
         <v>729</v>
       </c>
@@ -4001,15 +3994,15 @@
       <c r="F106">
         <v>0.101743</v>
       </c>
-      <c r="G106" s="4" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="107" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A107" s="1">
+      <c r="G106" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="107" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A107">
         <v>730</v>
       </c>
-      <c r="B107" s="4" t="str">
+      <c r="B107" t="str">
         <f t="shared" si="1"/>
         <v>730</v>
       </c>
@@ -4025,15 +4018,15 @@
       <c r="F107">
         <v>0.101743</v>
       </c>
-      <c r="G107" s="4" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="108" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A108" s="1">
+      <c r="G107" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="108" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A108">
         <v>731</v>
       </c>
-      <c r="B108" s="4" t="str">
+      <c r="B108" t="str">
         <f t="shared" si="1"/>
         <v>731</v>
       </c>
@@ -4049,15 +4042,15 @@
       <c r="F108">
         <v>0.101743</v>
       </c>
-      <c r="G108" s="4" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="109" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G108" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="109" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A109">
         <v>746</v>
       </c>
-      <c r="B109" s="4" t="str">
+      <c r="B109" t="str">
         <f t="shared" si="1"/>
         <v>746</v>
       </c>
@@ -4073,15 +4066,15 @@
       <c r="F109">
         <v>0.101743</v>
       </c>
-      <c r="G109" s="4" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="110" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A110" s="1">
+      <c r="G109" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="110" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A110">
         <v>748</v>
       </c>
-      <c r="B110" s="4" t="str">
+      <c r="B110" t="str">
         <f t="shared" si="1"/>
         <v>748</v>
       </c>
@@ -4097,15 +4090,15 @@
       <c r="F110">
         <v>0.101743</v>
       </c>
-      <c r="G110" s="4" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="111" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G110" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="111" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A111">
         <v>752</v>
       </c>
-      <c r="B111" s="4" t="str">
+      <c r="B111" t="str">
         <f t="shared" si="1"/>
         <v>752</v>
       </c>
@@ -4121,15 +4114,15 @@
       <c r="F111">
         <v>0.101743</v>
       </c>
-      <c r="G111" s="4" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="112" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A112" s="1">
+      <c r="G111" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="112" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A112">
         <v>760</v>
       </c>
-      <c r="B112" s="4" t="str">
+      <c r="B112" t="str">
         <f t="shared" si="1"/>
         <v>760</v>
       </c>
@@ -4145,15 +4138,15 @@
       <c r="F112">
         <v>0.101743</v>
       </c>
-      <c r="G112" s="4" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="113" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A113" s="1">
+      <c r="G112" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="113" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A113">
         <v>765</v>
       </c>
-      <c r="B113" s="4" t="str">
+      <c r="B113" t="str">
         <f t="shared" si="1"/>
         <v>765</v>
       </c>
@@ -4169,15 +4162,15 @@
       <c r="F113">
         <v>0.101743</v>
       </c>
-      <c r="G113" s="4" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="114" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A114" s="1">
+      <c r="G113" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="114" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A114">
         <v>767</v>
       </c>
-      <c r="B114" s="4" t="str">
+      <c r="B114" t="str">
         <f t="shared" si="1"/>
         <v>767</v>
       </c>
@@ -4193,15 +4186,15 @@
       <c r="F114">
         <v>0.101743</v>
       </c>
-      <c r="G114" s="4" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="115" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G114" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="115" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A115">
         <v>774</v>
       </c>
-      <c r="B115" s="4" t="str">
+      <c r="B115" t="str">
         <f t="shared" si="1"/>
         <v>774</v>
       </c>
@@ -4217,15 +4210,15 @@
       <c r="F115">
         <v>0.101743</v>
       </c>
-      <c r="G115" s="4" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="116" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G115" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="116" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A116">
         <v>790</v>
       </c>
-      <c r="B116" s="4" t="str">
+      <c r="B116" t="str">
         <f t="shared" si="1"/>
         <v>790</v>
       </c>
@@ -4241,15 +4234,15 @@
       <c r="F116">
         <v>0.101743</v>
       </c>
-      <c r="G116" s="4" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="117" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G116" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="117" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A117">
         <v>791</v>
       </c>
-      <c r="B117" s="4" t="str">
+      <c r="B117" t="str">
         <f t="shared" si="1"/>
         <v>791</v>
       </c>
@@ -4265,15 +4258,15 @@
       <c r="F117">
         <v>0.101743</v>
       </c>
-      <c r="G117" s="4" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="118" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G117" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="118" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A118">
         <v>792</v>
       </c>
-      <c r="B118" s="4" t="str">
+      <c r="B118" t="str">
         <f t="shared" si="1"/>
         <v>792</v>
       </c>
@@ -4289,15 +4282,15 @@
       <c r="F118">
         <v>0.101743</v>
       </c>
-      <c r="G118" s="4" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="119" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G118" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="119" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A119">
         <v>797</v>
       </c>
-      <c r="B119" s="4" t="str">
+      <c r="B119" t="str">
         <f t="shared" si="1"/>
         <v>797</v>
       </c>
@@ -4313,15 +4306,15 @@
       <c r="F119">
         <v>0.101743</v>
       </c>
-      <c r="G119" s="4" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="120" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A120" s="1">
+      <c r="G119" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="120" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A120">
         <v>799</v>
       </c>
-      <c r="B120" s="4" t="str">
+      <c r="B120" t="str">
         <f t="shared" si="1"/>
         <v>799</v>
       </c>
@@ -4337,15 +4330,15 @@
       <c r="F120">
         <v>0.101743</v>
       </c>
-      <c r="G120" s="4" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="121" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G120" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="121" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A121">
         <v>801</v>
       </c>
-      <c r="B121" s="4" t="str">
+      <c r="B121" t="str">
         <f t="shared" si="1"/>
         <v>801</v>
       </c>
@@ -4361,15 +4354,15 @@
       <c r="F121">
         <v>0.101743</v>
       </c>
-      <c r="G121" s="4" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="122" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G121" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="122" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A122">
         <v>817</v>
       </c>
-      <c r="B122" s="4" t="str">
+      <c r="B122" t="str">
         <f t="shared" si="1"/>
         <v>817</v>
       </c>
@@ -4385,15 +4378,15 @@
       <c r="F122">
         <v>0.101743</v>
       </c>
-      <c r="G122" s="4" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="123" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G122" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="123" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A123">
         <v>823</v>
       </c>
-      <c r="B123" s="4" t="str">
+      <c r="B123" t="str">
         <f t="shared" si="1"/>
         <v>823</v>
       </c>
@@ -4409,15 +4402,15 @@
       <c r="F123">
         <v>0.101743</v>
       </c>
-      <c r="G123" s="4" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="124" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G123" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="124" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A124">
         <v>827</v>
       </c>
-      <c r="B124" s="4" t="str">
+      <c r="B124" t="str">
         <f t="shared" si="1"/>
         <v>827</v>
       </c>
@@ -4433,15 +4426,15 @@
       <c r="F124">
         <v>0.101743</v>
       </c>
-      <c r="G124" s="4" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="125" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G124" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="125" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A125">
         <v>828</v>
       </c>
-      <c r="B125" s="4" t="str">
+      <c r="B125" t="str">
         <f t="shared" si="1"/>
         <v>828</v>
       </c>
@@ -4457,15 +4450,15 @@
       <c r="F125">
         <v>0.101743</v>
       </c>
-      <c r="G125" s="4" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="126" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G125" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="126" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A126">
         <v>829</v>
       </c>
-      <c r="B126" s="4" t="str">
+      <c r="B126" t="str">
         <f t="shared" si="1"/>
         <v>829</v>
       </c>
@@ -4481,15 +4474,15 @@
       <c r="F126">
         <v>0.101743</v>
       </c>
-      <c r="G126" s="4" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="127" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G126" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="127" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A127">
         <v>830</v>
       </c>
-      <c r="B127" s="4" t="str">
+      <c r="B127" t="str">
         <f t="shared" si="1"/>
         <v>830</v>
       </c>
@@ -4505,15 +4498,15 @@
       <c r="F127">
         <v>0.101743</v>
       </c>
-      <c r="G127" s="4" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="128" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G127" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="128" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A128">
         <v>831</v>
       </c>
-      <c r="B128" s="4" t="str">
+      <c r="B128" t="str">
         <f t="shared" si="1"/>
         <v>831</v>
       </c>
@@ -4529,15 +4522,15 @@
       <c r="F128">
         <v>0.101743</v>
       </c>
-      <c r="G128" s="4" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="129" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G128" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="129" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A129">
         <v>833</v>
       </c>
-      <c r="B129" s="4" t="str">
+      <c r="B129" t="str">
         <f t="shared" si="1"/>
         <v>833</v>
       </c>
@@ -4553,15 +4546,15 @@
       <c r="F129">
         <v>0.101743</v>
       </c>
-      <c r="G129" s="4" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="130" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G129" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="130" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A130">
         <v>880</v>
       </c>
-      <c r="B130" s="4" t="str">
+      <c r="B130" t="str">
         <f t="shared" si="1"/>
         <v>880</v>
       </c>
@@ -4577,15 +4570,15 @@
       <c r="F130">
         <v>0.101743</v>
       </c>
-      <c r="G130" s="4" t="s">
+      <c r="G130" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="131" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A131" s="1">
+    <row r="131" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A131">
         <v>881</v>
       </c>
-      <c r="B131" s="4" t="str">
+      <c r="B131" t="str">
         <f t="shared" ref="B131:B150" si="2">TEXT(A131,"000")</f>
         <v>881</v>
       </c>
@@ -4601,15 +4594,15 @@
       <c r="F131">
         <v>0.101743</v>
       </c>
-      <c r="G131" s="4" t="s">
+      <c r="G131" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="132" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A132">
         <v>883</v>
       </c>
-      <c r="B132" s="4" t="str">
+      <c r="B132" t="str">
         <f t="shared" si="2"/>
         <v>883</v>
       </c>
@@ -4625,15 +4618,15 @@
       <c r="F132">
         <v>0.101743</v>
       </c>
-      <c r="G132" s="4" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="133" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G132" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="133" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A133">
         <v>887</v>
       </c>
-      <c r="B133" s="4" t="str">
+      <c r="B133" t="str">
         <f t="shared" si="2"/>
         <v>887</v>
       </c>
@@ -4649,15 +4642,15 @@
       <c r="F133">
         <v>0.101743</v>
       </c>
-      <c r="G133" s="4" t="s">
+      <c r="G133" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="134" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A134">
         <v>889</v>
       </c>
-      <c r="B134" s="4" t="str">
+      <c r="B134" t="str">
         <f t="shared" si="2"/>
         <v>889</v>
       </c>
@@ -4673,15 +4666,15 @@
       <c r="F134">
         <v>0.101743</v>
       </c>
-      <c r="G134" s="4" t="s">
+      <c r="G134" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="135" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A135">
         <v>890</v>
       </c>
-      <c r="B135" s="4" t="str">
+      <c r="B135" t="str">
         <f t="shared" si="2"/>
         <v>890</v>
       </c>
@@ -4697,15 +4690,15 @@
       <c r="F135">
         <v>0.101743</v>
       </c>
-      <c r="G135" s="4" t="s">
+      <c r="G135" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="136" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A136">
         <v>891</v>
       </c>
-      <c r="B136" s="4" t="str">
+      <c r="B136" t="str">
         <f t="shared" si="2"/>
         <v>891</v>
       </c>
@@ -4721,15 +4714,15 @@
       <c r="F136">
         <v>0.101743</v>
       </c>
-      <c r="G136" s="4" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="137" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G136" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="137" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A137">
         <v>892</v>
       </c>
-      <c r="B137" s="4" t="str">
+      <c r="B137" t="str">
         <f t="shared" si="2"/>
         <v>892</v>
       </c>
@@ -4745,15 +4738,15 @@
       <c r="F137">
         <v>0.101743</v>
       </c>
-      <c r="G137" s="4" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="138" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G137" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="138" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A138">
         <v>893</v>
       </c>
-      <c r="B138" s="4" t="str">
+      <c r="B138" t="str">
         <f t="shared" si="2"/>
         <v>893</v>
       </c>
@@ -4769,15 +4762,15 @@
       <c r="F138">
         <v>0.101743</v>
       </c>
-      <c r="G138" s="4" t="s">
+      <c r="G138" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="139" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A139">
         <v>897</v>
       </c>
-      <c r="B139" s="4" t="str">
+      <c r="B139" t="str">
         <f t="shared" si="2"/>
         <v>897</v>
       </c>
@@ -4793,15 +4786,15 @@
       <c r="F139">
         <v>0.101743</v>
       </c>
-      <c r="G139" s="4" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="140" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G139" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="140" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A140">
         <v>899</v>
       </c>
-      <c r="B140" s="4" t="str">
+      <c r="B140" t="str">
         <f t="shared" si="2"/>
         <v>899</v>
       </c>
@@ -4817,15 +4810,15 @@
       <c r="F140">
         <v>0.101743</v>
       </c>
-      <c r="G140" s="4" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="141" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G140" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="141" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A141">
         <v>900</v>
       </c>
-      <c r="B141" s="4" t="str">
+      <c r="B141" t="str">
         <f t="shared" si="2"/>
         <v>900</v>
       </c>
@@ -4841,15 +4834,15 @@
       <c r="F141">
         <v>0.1</v>
       </c>
-      <c r="G141" s="4" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="142" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G141" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="142" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A142">
         <v>913</v>
       </c>
-      <c r="B142" s="4" t="str">
+      <c r="B142" t="str">
         <f t="shared" si="2"/>
         <v>913</v>
       </c>
@@ -4865,15 +4858,15 @@
       <c r="F142">
         <v>0.1</v>
       </c>
-      <c r="G142" s="4" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="143" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G142" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="143" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A143">
         <v>914</v>
       </c>
-      <c r="B143" s="4" t="str">
+      <c r="B143" t="str">
         <f t="shared" si="2"/>
         <v>914</v>
       </c>
@@ -4889,15 +4882,15 @@
       <c r="F143">
         <v>0.1</v>
       </c>
-      <c r="G143" s="4" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="144" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G143" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="144" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A144">
         <v>915</v>
       </c>
-      <c r="B144" s="4" t="str">
+      <c r="B144" t="str">
         <f t="shared" si="2"/>
         <v>915</v>
       </c>
@@ -4913,15 +4906,15 @@
       <c r="F144">
         <v>0.1</v>
       </c>
-      <c r="G144" s="4" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="145" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G144" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="145" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A145">
         <v>918</v>
       </c>
-      <c r="B145" s="4" t="str">
+      <c r="B145" t="str">
         <f t="shared" si="2"/>
         <v>918</v>
       </c>
@@ -4937,15 +4930,15 @@
       <c r="F145">
         <v>0.1</v>
       </c>
-      <c r="G145" s="4" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="146" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G145" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="146" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A146">
         <v>919</v>
       </c>
-      <c r="B146" s="4" t="str">
+      <c r="B146" t="str">
         <f t="shared" si="2"/>
         <v>919</v>
       </c>
@@ -4961,15 +4954,15 @@
       <c r="F146">
         <v>0.1</v>
       </c>
-      <c r="G146" s="4" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="147" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G146" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="147" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A147">
         <v>990</v>
       </c>
-      <c r="B147" s="4" t="str">
+      <c r="B147" t="str">
         <f t="shared" si="2"/>
         <v>990</v>
       </c>
@@ -4985,15 +4978,15 @@
       <c r="F147">
         <v>0.1</v>
       </c>
-      <c r="G147" s="4" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="148" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G147" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="148" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A148">
         <v>991</v>
       </c>
-      <c r="B148" s="4" t="str">
+      <c r="B148" t="str">
         <f t="shared" si="2"/>
         <v>991</v>
       </c>
@@ -5009,15 +5002,15 @@
       <c r="F148">
         <v>0.1</v>
       </c>
-      <c r="G148" s="4" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="149" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G148" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="149" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A149">
         <v>996</v>
       </c>
-      <c r="B149" s="4" t="str">
+      <c r="B149" t="str">
         <f t="shared" si="2"/>
         <v>996</v>
       </c>
@@ -5033,15 +5026,15 @@
       <c r="F149">
         <v>0.1</v>
       </c>
-      <c r="G149" s="4" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="150" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G149" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="150" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A150">
         <v>997</v>
       </c>
-      <c r="B150" s="4" t="str">
+      <c r="B150" t="str">
         <f t="shared" si="2"/>
         <v>997</v>
       </c>
@@ -5057,68 +5050,12 @@
       <c r="F150">
         <v>0.1</v>
       </c>
-      <c r="G150" s="4" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="151" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A151" s="1"/>
-      <c r="B151" s="1"/>
-    </row>
-    <row r="152" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A152" s="1"/>
-      <c r="B152" s="1"/>
-    </row>
-    <row r="153" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A153" s="1"/>
-      <c r="B153" s="1"/>
-    </row>
-    <row r="154" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A154" s="1"/>
-      <c r="B154" s="1"/>
-    </row>
-    <row r="155" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A155" s="1"/>
-      <c r="B155" s="1"/>
-    </row>
-    <row r="156" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A156" s="1"/>
-      <c r="B156" s="1"/>
-    </row>
-    <row r="157" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A157" s="1"/>
-      <c r="B157" s="1"/>
-    </row>
-    <row r="158" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A158" s="1"/>
-      <c r="B158" s="1"/>
-    </row>
-    <row r="159" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A159" s="1"/>
-      <c r="B159" s="1"/>
-    </row>
-    <row r="160" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A160" s="1"/>
-      <c r="B160" s="1"/>
-    </row>
-    <row r="161" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A161" s="1"/>
-      <c r="B161" s="1"/>
-    </row>
-    <row r="162" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A162" s="1"/>
-      <c r="B162" s="1"/>
-    </row>
-    <row r="163" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A163" s="1"/>
-      <c r="B163" s="1"/>
-    </row>
-    <row r="164" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A164" s="1"/>
-      <c r="B164" s="1"/>
+      <c r="G150" t="s">
+        <v>145</v>
+      </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:F150" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
+  <autoFilter ref="A1:G150" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -5132,192 +5069,192 @@
       <selection sqref="A1:C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="10" t="s">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" s="3" t="s">
         <v>310</v>
       </c>
-      <c r="B1" s="10" t="s">
+      <c r="B1" s="3" t="s">
         <v>312</v>
       </c>
-      <c r="C1" s="10" t="s">
+      <c r="C1" s="3" t="s">
         <v>311</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
         <v>180</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" t="s">
         <v>181</v>
       </c>
-      <c r="C2" s="4" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="4" t="s">
+      <c r="C2" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
         <v>182</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" t="s">
         <v>183</v>
       </c>
-      <c r="C3" s="4" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="4" t="s">
+      <c r="C3" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
         <v>184</v>
       </c>
-      <c r="B4" s="4" t="s">
-        <v>151</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="4" t="s">
+      <c r="B4" t="s">
+        <v>151</v>
+      </c>
+      <c r="C4" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
         <v>185</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="B5" t="s">
         <v>186</v>
       </c>
-      <c r="C5" s="4" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="4" t="s">
+      <c r="C5" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
         <v>187</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="B6" t="s">
         <v>188</v>
       </c>
-      <c r="C6" s="4" t="s">
+      <c r="C6" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="4" t="s">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
         <v>189</v>
       </c>
-      <c r="B7" s="4" t="s">
+      <c r="B7" t="s">
         <v>139</v>
       </c>
-      <c r="C7" s="4" t="s">
+      <c r="C7" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" s="4" t="s">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
         <v>190</v>
       </c>
-      <c r="B8" s="4" t="s">
+      <c r="B8" t="s">
         <v>157</v>
       </c>
-      <c r="C8" s="4" t="s">
+      <c r="C8" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" s="4" t="s">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
         <v>191</v>
       </c>
-      <c r="B9" s="4" t="s">
+      <c r="B9" t="s">
         <v>192</v>
       </c>
-      <c r="C9" s="4" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" s="4" t="s">
+      <c r="C9" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
         <v>193</v>
       </c>
-      <c r="B10" s="4" t="s">
+      <c r="B10" t="s">
         <v>194</v>
       </c>
-      <c r="C10" s="4" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" s="4" t="s">
+      <c r="C10" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
         <v>195</v>
       </c>
-      <c r="B11" s="4" t="s">
+      <c r="B11" t="s">
         <v>196</v>
       </c>
-      <c r="C11" s="4" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" s="4" t="s">
+      <c r="C11" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
         <v>197</v>
       </c>
-      <c r="B12" s="4" t="s">
+      <c r="B12" t="s">
         <v>198</v>
       </c>
-      <c r="C12" s="4" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" s="4" t="s">
+      <c r="C12" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
         <v>199</v>
       </c>
-      <c r="B13" s="4" t="s">
+      <c r="B13" t="s">
         <v>200</v>
       </c>
-      <c r="C13" s="4" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" s="4" t="s">
+      <c r="C13" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
         <v>201</v>
       </c>
-      <c r="B14" s="4" t="s">
-        <v>145</v>
-      </c>
-      <c r="C14" s="4" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15" s="4" t="s">
+      <c r="B14" t="s">
+        <v>145</v>
+      </c>
+      <c r="C14" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
         <v>202</v>
       </c>
-      <c r="B15" s="4" t="s">
+      <c r="B15" t="s">
         <v>203</v>
       </c>
-      <c r="C15" s="4" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16" s="4" t="s">
+      <c r="C15" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
         <v>204</v>
       </c>
-      <c r="B16" s="4" t="s">
+      <c r="B16" t="s">
         <v>205</v>
       </c>
-      <c r="C16" s="4" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" s="4" t="s">
+      <c r="C16" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
         <v>206</v>
       </c>
-      <c r="B17" s="4" t="s">
+      <c r="B17" t="s">
         <v>207</v>
       </c>
-      <c r="C17" s="4" t="s">
+      <c r="C17" t="s">
         <v>145</v>
       </c>
     </row>
@@ -5334,253 +5271,253 @@
       <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="10" t="s">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" s="3" t="s">
         <v>176</v>
       </c>
-      <c r="B1" s="10" t="s">
+      <c r="B1" s="3" t="s">
         <v>311</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
         <v>138</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
         <v>140</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="3" t="s">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
         <v>141</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B4" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="3" t="s">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
         <v>143</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="B5" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="3" t="s">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
         <v>144</v>
       </c>
-      <c r="B6" s="3" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" s="3" t="s">
+      <c r="B6" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
         <v>146</v>
       </c>
-      <c r="B7" s="3" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" s="3" t="s">
+      <c r="B7" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
         <v>147</v>
       </c>
-      <c r="B8" s="3" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" s="3" t="s">
+      <c r="B8" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
         <v>148</v>
       </c>
-      <c r="B9" s="3" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" s="3" t="s">
+      <c r="B9" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
         <v>149</v>
       </c>
-      <c r="B10" s="3" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" s="3" t="s">
+      <c r="B10" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
         <v>150</v>
       </c>
-      <c r="B11" s="3" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" s="3" t="s">
+      <c r="B11" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
         <v>152</v>
       </c>
-      <c r="B12" s="3" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" s="3" t="s">
+      <c r="B12" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
         <v>153</v>
       </c>
-      <c r="B13" s="3" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" s="3" t="s">
+      <c r="B13" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
         <v>154</v>
       </c>
-      <c r="B14" s="3" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15" s="3" t="s">
+      <c r="B14" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
         <v>155</v>
       </c>
-      <c r="B15" s="3" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16" s="3" t="s">
+      <c r="B15" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
         <v>156</v>
       </c>
-      <c r="B16" s="3" t="s">
+      <c r="B16" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" s="3" t="s">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
         <v>158</v>
       </c>
-      <c r="B17" s="3" t="s">
+      <c r="B17" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18" s="3" t="s">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
         <v>159</v>
       </c>
-      <c r="B18" s="3" t="s">
+      <c r="B18" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19" s="3" t="s">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
         <v>161</v>
       </c>
-      <c r="B19" s="3" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A20" s="3" t="s">
+      <c r="B19" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
         <v>162</v>
       </c>
-      <c r="B20" s="3" t="s">
+      <c r="B20" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A21" s="3" t="s">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
         <v>164</v>
       </c>
-      <c r="B21" s="3" t="s">
+      <c r="B21" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A22" s="3" t="s">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
         <v>166</v>
       </c>
-      <c r="B22" s="3" t="s">
+      <c r="B22" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A23" s="3" t="s">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
         <v>167</v>
       </c>
-      <c r="B23" s="3" t="s">
+      <c r="B23" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A24" s="3" t="s">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
         <v>168</v>
       </c>
-      <c r="B24" s="3" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A25" s="3" t="s">
+      <c r="B24" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
         <v>169</v>
       </c>
-      <c r="B25" s="3" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A26" s="3" t="s">
+      <c r="B25" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
         <v>170</v>
       </c>
-      <c r="B26" s="3" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A27" s="3" t="s">
+      <c r="B26" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
         <v>171</v>
       </c>
-      <c r="B27" s="3" t="s">
+      <c r="B27" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A28" s="3" t="s">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
         <v>172</v>
       </c>
-      <c r="B28" s="3" t="s">
+      <c r="B28" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A29" s="3" t="s">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
         <v>173</v>
       </c>
-      <c r="B29" s="3" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A30" s="3" t="s">
+      <c r="B29" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
         <v>174</v>
       </c>
-      <c r="B30" s="3" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A31" s="3" t="s">
+      <c r="B30" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
         <v>175</v>
       </c>
-      <c r="B31" s="3" t="s">
+      <c r="B31" t="s">
         <v>163</v>
       </c>
     </row>
@@ -5597,229 +5534,229 @@
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="5.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5.44140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="10" t="s">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" s="3" t="s">
         <v>310</v>
       </c>
-      <c r="B1" s="10" t="s">
+      <c r="B1" s="3" t="s">
         <v>312</v>
       </c>
-      <c r="C1" s="10" t="s">
+      <c r="C1" s="3" t="s">
         <v>311</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="5" t="s">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
         <v>138</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" t="s">
         <v>208</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C2" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="5" t="s">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
         <v>140</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B3" t="s">
         <v>210</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="C3" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="4" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="13" t="s">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" s="6" t="s">
         <v>141</v>
       </c>
       <c r="B4" t="s">
         <v>260</v>
       </c>
-      <c r="C4" s="9" t="s">
+      <c r="C4" t="s">
         <v>340</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="5" t="s">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
         <v>144</v>
       </c>
-      <c r="B5" s="5" t="s">
+      <c r="B5" t="s">
         <v>211</v>
       </c>
-      <c r="C5" s="5" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="5" t="s">
+      <c r="C5" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
         <v>146</v>
       </c>
-      <c r="B6" s="5" t="s">
+      <c r="B6" t="s">
         <v>212</v>
       </c>
-      <c r="C6" s="5" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="5" t="s">
+      <c r="C6" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
         <v>147</v>
       </c>
-      <c r="B7" s="5" t="s">
+      <c r="B7" t="s">
         <v>213</v>
       </c>
-      <c r="C7" s="5" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" s="5" t="s">
+      <c r="C7" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
         <v>148</v>
       </c>
-      <c r="B8" s="5" t="s">
+      <c r="B8" t="s">
         <v>214</v>
       </c>
-      <c r="C8" s="5" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" s="5" t="s">
+      <c r="C8" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
         <v>149</v>
       </c>
-      <c r="B9" s="5" t="s">
+      <c r="B9" t="s">
         <v>215</v>
       </c>
-      <c r="C9" s="5" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" s="5" t="s">
+      <c r="C9" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
         <v>150</v>
       </c>
-      <c r="B10" s="5" t="s">
+      <c r="B10" t="s">
         <v>216</v>
       </c>
-      <c r="C10" s="5" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" s="5" t="s">
+      <c r="C10" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
         <v>152</v>
       </c>
-      <c r="B11" s="5" t="s">
+      <c r="B11" t="s">
         <v>217</v>
       </c>
-      <c r="C11" s="5" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" s="5" t="s">
+      <c r="C11" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
         <v>153</v>
       </c>
-      <c r="B12" s="5" t="s">
+      <c r="B12" t="s">
         <v>218</v>
       </c>
-      <c r="C12" s="5" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" s="5" t="s">
+      <c r="C12" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
         <v>154</v>
       </c>
-      <c r="B13" s="5" t="s">
+      <c r="B13" t="s">
         <v>219</v>
       </c>
-      <c r="C13" s="5" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" s="5" t="s">
+      <c r="C13" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
         <v>156</v>
       </c>
-      <c r="B14" s="5" t="s">
+      <c r="B14" t="s">
         <v>220</v>
       </c>
-      <c r="C14" s="5" t="s">
+      <c r="C14" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15" s="5" t="s">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
         <v>221</v>
       </c>
-      <c r="B15" s="5" t="s">
+      <c r="B15" t="s">
         <v>222</v>
       </c>
-      <c r="C15" s="5" t="s">
+      <c r="C15" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16" s="5" t="s">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
         <v>158</v>
       </c>
-      <c r="B16" s="5" t="s">
+      <c r="B16" t="s">
         <v>223</v>
       </c>
-      <c r="C16" s="5" t="s">
+      <c r="C16" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" s="5" t="s">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
         <v>224</v>
       </c>
-      <c r="B17" s="5" t="s">
+      <c r="B17" t="s">
         <v>225</v>
       </c>
-      <c r="C17" s="5" t="s">
+      <c r="C17" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" s="5" t="s">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
         <v>226</v>
       </c>
-      <c r="B18" s="5" t="s">
+      <c r="B18" t="s">
         <v>227</v>
       </c>
-      <c r="C18" s="5" t="s">
+      <c r="C18" t="s">
         <v>228</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" s="5" t="s">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
         <v>159</v>
       </c>
-      <c r="B19" s="5" t="s">
+      <c r="B19" t="s">
         <v>229</v>
       </c>
-      <c r="C19" s="5" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" s="5" t="s">
+      <c r="C19" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
         <v>230</v>
       </c>
-      <c r="B20" s="5" t="s">
+      <c r="B20" t="s">
         <v>231</v>
       </c>
-      <c r="C20" s="5" t="s">
+      <c r="C20" t="s">
         <v>151</v>
       </c>
     </row>
@@ -5836,250 +5773,250 @@
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="21.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="10" t="s">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" s="3" t="s">
         <v>310</v>
       </c>
-      <c r="B1" s="10" t="s">
+      <c r="B1" s="3" t="s">
         <v>312</v>
       </c>
-      <c r="C1" s="10" t="s">
+      <c r="C1" s="3" t="s">
         <v>311</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="6">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2">
         <v>102</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B2" t="s">
         <v>232</v>
       </c>
-      <c r="C2" s="6" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="6">
+      <c r="C2" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3">
         <v>103</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="B3" t="s">
         <v>233</v>
       </c>
-      <c r="C3" s="6" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="6">
+      <c r="C3" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4">
         <v>104</v>
       </c>
-      <c r="B4" s="6" t="s">
+      <c r="B4" t="s">
         <v>234</v>
       </c>
-      <c r="C4" s="6" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="6">
+      <c r="C4" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5">
         <v>105</v>
       </c>
-      <c r="B5" s="6" t="s">
+      <c r="B5" t="s">
         <v>235</v>
       </c>
-      <c r="C5" s="6" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="6">
+      <c r="C5" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6">
         <v>106</v>
       </c>
-      <c r="B6" s="6" t="s">
+      <c r="B6" t="s">
         <v>236</v>
       </c>
-      <c r="C6" s="6" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="6">
+      <c r="C6" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7">
         <v>118</v>
       </c>
-      <c r="B7" s="6" t="s">
+      <c r="B7" t="s">
         <v>237</v>
       </c>
-      <c r="C7" s="6" t="s">
+      <c r="C7" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" s="6">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A8">
         <v>119</v>
       </c>
-      <c r="B8" s="6" t="s">
+      <c r="B8" t="s">
         <v>238</v>
       </c>
-      <c r="C8" s="6" t="s">
+      <c r="C8" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" s="6">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A9">
         <v>120</v>
       </c>
-      <c r="B9" s="6" t="s">
+      <c r="B9" t="s">
         <v>239</v>
       </c>
-      <c r="C9" s="6" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" s="6">
+      <c r="C9" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A10">
         <v>181</v>
       </c>
-      <c r="B10" s="6" t="s">
+      <c r="B10" t="s">
         <v>240</v>
       </c>
-      <c r="C10" s="6" t="s">
+      <c r="C10" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" s="6">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A11">
         <v>191</v>
       </c>
-      <c r="B11" s="6" t="s">
+      <c r="B11" t="s">
         <v>241</v>
       </c>
-      <c r="C11" s="6" t="s">
+      <c r="C11" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" s="6">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A12">
         <v>314</v>
       </c>
-      <c r="B12" s="6" t="s">
+      <c r="B12" t="s">
         <v>242</v>
       </c>
-      <c r="C12" s="6" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" s="6">
+      <c r="C12" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A13">
         <v>317</v>
       </c>
-      <c r="B13" s="6" t="s">
+      <c r="B13" t="s">
         <v>243</v>
       </c>
-      <c r="C13" s="6" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" s="6">
+      <c r="C13" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A14">
         <v>320</v>
       </c>
-      <c r="B14" s="6" t="s">
+      <c r="B14" t="s">
         <v>244</v>
       </c>
-      <c r="C14" s="6" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15" s="6">
+      <c r="C14" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A15">
         <v>321</v>
       </c>
-      <c r="B15" s="6" t="s">
+      <c r="B15" t="s">
         <v>245</v>
       </c>
-      <c r="C15" s="6" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16" s="6">
+      <c r="C15" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A16">
         <v>328</v>
       </c>
-      <c r="B16" s="6" t="s">
+      <c r="B16" t="s">
         <v>246</v>
       </c>
-      <c r="C16" s="6" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" s="6">
+      <c r="C16" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A17">
         <v>401</v>
       </c>
-      <c r="B17" s="6" t="s">
+      <c r="B17" t="s">
         <v>247</v>
       </c>
-      <c r="C17" s="6" t="s">
+      <c r="C17" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" s="6">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A18">
         <v>402</v>
       </c>
-      <c r="B18" s="6" t="s">
+      <c r="B18" t="s">
         <v>248</v>
       </c>
-      <c r="C18" s="6" t="s">
+      <c r="C18" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" s="6">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A19">
         <v>403</v>
       </c>
-      <c r="B19" s="6" t="s">
+      <c r="B19" t="s">
         <v>249</v>
       </c>
-      <c r="C19" s="6" t="s">
+      <c r="C19" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" s="6">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A20">
         <v>415</v>
       </c>
-      <c r="B20" s="6" t="s">
+      <c r="B20" t="s">
         <v>250</v>
       </c>
-      <c r="C20" s="6" t="s">
+      <c r="C20" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21" s="6">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A21">
         <v>610</v>
       </c>
-      <c r="B21" s="6" t="s">
+      <c r="B21" t="s">
         <v>251</v>
       </c>
-      <c r="C21" s="6" t="s">
+      <c r="C21" t="s">
         <v>228</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A22" s="6">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A22">
         <v>999</v>
       </c>
-      <c r="B22" s="6" t="s">
+      <c r="B22" t="s">
         <v>252</v>
       </c>
-      <c r="C22" s="6" t="s">
+      <c r="C22" t="s">
         <v>188</v>
       </c>
     </row>
@@ -6092,287 +6029,287 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:C23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="35" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="10" t="s">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" s="3" t="s">
         <v>339</v>
       </c>
-      <c r="B1" s="10" t="s">
+      <c r="B1" s="3" t="s">
         <v>341</v>
       </c>
-      <c r="C1" s="10" t="s">
+      <c r="C1" s="3" t="s">
         <v>311</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="str">
         <f>LEFT(B2,2)</f>
         <v>11</v>
       </c>
-      <c r="B2" s="9" t="s">
+      <c r="B2" t="s">
         <v>317</v>
       </c>
-      <c r="C2" s="9" t="s">
+      <c r="C2" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="9" t="str">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" t="str">
         <f t="shared" ref="A3:A23" si="0">LEFT(B3,2)</f>
         <v>12</v>
       </c>
-      <c r="B3" s="9" t="s">
+      <c r="B3" t="s">
         <v>318</v>
       </c>
-      <c r="C3" s="9" t="s">
+      <c r="C3" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="9" t="str">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" t="str">
         <f t="shared" si="0"/>
         <v>21</v>
       </c>
-      <c r="B4" s="9" t="s">
+      <c r="B4" t="s">
         <v>319</v>
       </c>
-      <c r="C4" s="9" t="s">
+      <c r="C4" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="9" t="str">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5" t="str">
         <f t="shared" si="0"/>
         <v>22</v>
       </c>
-      <c r="B5" s="9" t="s">
+      <c r="B5" t="s">
         <v>320</v>
       </c>
-      <c r="C5" s="9" t="s">
+      <c r="C5" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="9" t="str">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6" t="str">
         <f t="shared" si="0"/>
         <v>29</v>
       </c>
-      <c r="B6" s="9" t="s">
+      <c r="B6" t="s">
         <v>321</v>
       </c>
-      <c r="C6" s="9" t="s">
+      <c r="C6" t="s">
         <v>340</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="9" t="str">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7" t="str">
         <f t="shared" si="0"/>
         <v>30</v>
       </c>
-      <c r="B7" s="9" t="s">
+      <c r="B7" t="s">
         <v>322</v>
       </c>
-      <c r="C7" s="9" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" s="9" t="str">
+      <c r="C7" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A8" t="str">
         <f t="shared" si="0"/>
         <v>32</v>
       </c>
-      <c r="B8" s="9" t="s">
+      <c r="B8" t="s">
         <v>323</v>
       </c>
-      <c r="C8" s="9" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" s="9" t="str">
+      <c r="C8" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A9" t="str">
         <f t="shared" si="0"/>
         <v>40</v>
       </c>
-      <c r="B9" s="9" t="s">
+      <c r="B9" t="s">
         <v>324</v>
       </c>
-      <c r="C9" s="9" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" s="9" t="str">
+      <c r="C9" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A10" t="str">
         <f t="shared" si="0"/>
         <v>41</v>
       </c>
-      <c r="B10" s="9" t="s">
+      <c r="B10" t="s">
         <v>325</v>
       </c>
-      <c r="C10" s="9" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" s="9" t="str">
+      <c r="C10" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A11" t="str">
         <f t="shared" si="0"/>
         <v>42</v>
       </c>
-      <c r="B11" s="9" t="s">
+      <c r="B11" t="s">
         <v>326</v>
       </c>
-      <c r="C11" s="9" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" s="9" t="str">
+      <c r="C11" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A12" t="str">
         <f t="shared" si="0"/>
         <v>45</v>
       </c>
-      <c r="B12" s="9" t="s">
+      <c r="B12" t="s">
         <v>327</v>
       </c>
-      <c r="C12" s="9" t="s">
+      <c r="C12" t="s">
         <v>228</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" s="11" t="str">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A13" s="4" t="str">
         <f t="shared" si="0"/>
         <v>60</v>
       </c>
-      <c r="B13" s="12" t="s">
+      <c r="B13" s="5" t="s">
         <v>328</v>
       </c>
-      <c r="C13" s="12" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" s="11" t="str">
+      <c r="C13" s="5" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A14" s="4" t="str">
         <f t="shared" si="0"/>
         <v>60</v>
       </c>
-      <c r="B14" s="12" t="s">
+      <c r="B14" s="5" t="s">
         <v>329</v>
       </c>
-      <c r="C14" s="12" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15" s="9" t="str">
+      <c r="C14" s="5" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A15" t="str">
         <f t="shared" si="0"/>
         <v>61</v>
       </c>
-      <c r="B15" s="9" t="s">
+      <c r="B15" t="s">
         <v>330</v>
       </c>
-      <c r="C15" s="9" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16" s="9" t="str">
+      <c r="C15" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A16" t="str">
         <f t="shared" si="0"/>
         <v>62</v>
       </c>
-      <c r="B16" s="9" t="s">
+      <c r="B16" t="s">
         <v>331</v>
       </c>
-      <c r="C16" s="9" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" s="9" t="str">
+      <c r="C16" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A17" t="str">
         <f t="shared" si="0"/>
         <v>63</v>
       </c>
-      <c r="B17" s="9" t="s">
+      <c r="B17" t="s">
         <v>332</v>
       </c>
-      <c r="C17" s="9" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" s="9" t="str">
+      <c r="C17" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A18" t="str">
         <f t="shared" si="0"/>
         <v>80</v>
       </c>
-      <c r="B18" s="9" t="s">
+      <c r="B18" t="s">
         <v>333</v>
       </c>
-      <c r="C18" s="9" t="s">
+      <c r="C18" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" s="9" t="str">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A19" t="str">
         <f t="shared" si="0"/>
         <v>81</v>
       </c>
-      <c r="B19" s="9" t="s">
+      <c r="B19" t="s">
         <v>334</v>
       </c>
-      <c r="C19" s="9" t="s">
+      <c r="C19" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" s="9" t="str">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A20" t="str">
         <f t="shared" si="0"/>
         <v>82</v>
       </c>
-      <c r="B20" s="9" t="s">
+      <c r="B20" t="s">
         <v>335</v>
       </c>
-      <c r="C20" s="9" t="s">
+      <c r="C20" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21" s="9" t="str">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A21" t="str">
         <f t="shared" si="0"/>
         <v>83</v>
       </c>
-      <c r="B21" s="9" t="s">
+      <c r="B21" t="s">
         <v>336</v>
       </c>
-      <c r="C21" s="9" t="s">
+      <c r="C21" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A22" s="9" t="str">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A22" t="str">
         <f t="shared" si="0"/>
         <v>90</v>
       </c>
-      <c r="B22" s="9" t="s">
+      <c r="B22" t="s">
         <v>337</v>
       </c>
-      <c r="C22" s="9" t="s">
+      <c r="C22" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A23" s="9" t="str">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A23" t="str">
         <f t="shared" si="0"/>
         <v>MH</v>
       </c>
-      <c r="B23" s="9" t="s">
+      <c r="B23" t="s">
         <v>338</v>
       </c>
-      <c r="C23" s="9" t="s">
+      <c r="C23" t="s">
         <v>145</v>
       </c>
     </row>
@@ -6390,463 +6327,463 @@
       <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:6" s="9" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="10" t="s">
+    <row r="1" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="3" t="s">
         <v>313</v>
       </c>
-      <c r="B1" s="10" t="s">
+      <c r="B1" s="3" t="s">
         <v>314</v>
       </c>
-      <c r="C1" s="10" t="s">
+      <c r="C1" s="3" t="s">
         <v>312</v>
       </c>
-      <c r="D1" s="10" t="s">
+      <c r="D1" s="3" t="s">
         <v>315</v>
       </c>
-      <c r="E1" s="10" t="s">
+      <c r="E1" s="3" t="s">
         <v>311</v>
       </c>
-      <c r="F1" s="10" t="s">
+      <c r="F1" s="3" t="s">
         <v>316</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="7" t="s">
+    <row r="2" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="B2" s="8">
+      <c r="B2" s="2">
         <v>11</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" t="s">
         <v>253</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" t="s">
         <v>254</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="E2" t="s">
         <v>165</v>
       </c>
-      <c r="F2" s="2">
+      <c r="F2">
         <f>1/3</f>
         <v>0.33333333333333331</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="7" t="s">
+    <row r="3" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="B3" s="8">
+      <c r="B3" s="2">
         <v>21</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" t="s">
         <v>255</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="D3" t="s">
         <v>256</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="E3" t="s">
         <v>165</v>
       </c>
-      <c r="F3" s="2">
+      <c r="F3">
         <f>1/3</f>
         <v>0.33333333333333331</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="7" t="s">
+    <row r="4" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="1" t="s">
         <v>257</v>
       </c>
-      <c r="B4" s="8">
+      <c r="B4" s="2">
         <v>27</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C4" t="s">
         <v>258</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="D4" t="s">
         <v>259</v>
       </c>
-      <c r="E4" s="2" t="s">
+      <c r="E4" t="s">
         <v>165</v>
       </c>
-      <c r="F4" s="2">
+      <c r="F4">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="7" t="s">
+    <row r="5" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="B5" s="8">
+      <c r="B5" s="2">
         <v>28</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="C5" t="s">
         <v>260</v>
       </c>
-      <c r="D5" s="2" t="s">
+      <c r="D5" t="s">
         <v>261</v>
       </c>
-      <c r="E5" s="2" t="s">
+      <c r="E5" t="s">
         <v>165</v>
       </c>
-      <c r="F5" s="2">
+      <c r="F5">
         <f>1/3</f>
         <v>0.33333333333333331</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="7" t="s">
+    <row r="6" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="B6" s="8">
+      <c r="B6" s="2">
         <v>29</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="C6" t="s">
         <v>262</v>
       </c>
-      <c r="D6" s="2" t="s">
+      <c r="D6" t="s">
         <v>263</v>
       </c>
-      <c r="E6" s="2" t="s">
+      <c r="E6" t="s">
         <v>165</v>
       </c>
-      <c r="F6" s="2">
+      <c r="F6">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="7" t="s">
+    <row r="7" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="B7" s="8">
+      <c r="B7" s="2">
         <v>30</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="C7" t="s">
         <v>264</v>
       </c>
-      <c r="D7" s="2" t="s">
+      <c r="D7" t="s">
         <v>265</v>
       </c>
-      <c r="E7" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="F7" s="2">
+      <c r="E7" t="s">
+        <v>145</v>
+      </c>
+      <c r="F7">
         <f t="shared" ref="F7:F22" si="0">1/3</f>
         <v>0.33333333333333331</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="7" t="s">
+    <row r="8" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="1" t="s">
         <v>146</v>
       </c>
-      <c r="B8" s="8">
+      <c r="B8" s="2">
         <v>32</v>
       </c>
-      <c r="C8" s="2" t="s">
+      <c r="C8" t="s">
         <v>266</v>
       </c>
-      <c r="D8" s="2" t="s">
+      <c r="D8" t="s">
         <v>267</v>
       </c>
-      <c r="E8" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="F8" s="2">
+      <c r="E8" t="s">
+        <v>145</v>
+      </c>
+      <c r="F8">
         <f t="shared" si="0"/>
         <v>0.33333333333333331</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="7" t="s">
+    <row r="9" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="B9" s="8">
+      <c r="B9" s="2">
         <v>40</v>
       </c>
-      <c r="C9" s="2" t="s">
+      <c r="C9" t="s">
         <v>268</v>
       </c>
-      <c r="D9" s="2" t="s">
+      <c r="D9" t="s">
         <v>269</v>
       </c>
-      <c r="E9" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="F9" s="2">
+      <c r="E9" t="s">
+        <v>145</v>
+      </c>
+      <c r="F9">
         <f t="shared" si="0"/>
         <v>0.33333333333333331</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="7" t="s">
+    <row r="10" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="B10" s="8">
+      <c r="B10" s="2">
         <v>41</v>
       </c>
-      <c r="C10" s="2" t="s">
+      <c r="C10" t="s">
         <v>270</v>
       </c>
-      <c r="D10" s="2" t="s">
+      <c r="D10" t="s">
         <v>271</v>
       </c>
-      <c r="E10" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="F10" s="2">
+      <c r="E10" t="s">
+        <v>145</v>
+      </c>
+      <c r="F10">
         <f t="shared" si="0"/>
         <v>0.33333333333333331</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="7" t="s">
+    <row r="11" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="1" t="s">
         <v>149</v>
       </c>
-      <c r="B11" s="8">
+      <c r="B11" s="2">
         <v>50</v>
       </c>
-      <c r="C11" s="2" t="s">
+      <c r="C11" t="s">
         <v>272</v>
       </c>
-      <c r="D11" s="2" t="s">
+      <c r="D11" t="s">
         <v>273</v>
       </c>
-      <c r="E11" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="F11" s="2">
+      <c r="E11" t="s">
+        <v>145</v>
+      </c>
+      <c r="F11">
         <f t="shared" si="0"/>
         <v>0.33333333333333331</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="7" t="s">
+    <row r="12" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="B12" s="8">
+      <c r="B12" s="2">
         <v>52</v>
       </c>
-      <c r="C12" s="2" t="s">
+      <c r="C12" t="s">
         <v>274</v>
       </c>
-      <c r="D12" s="2" t="s">
+      <c r="D12" t="s">
         <v>275</v>
       </c>
-      <c r="E12" s="2" t="s">
-        <v>151</v>
-      </c>
-      <c r="F12" s="2">
+      <c r="E12" t="s">
+        <v>151</v>
+      </c>
+      <c r="F12">
         <f t="shared" si="0"/>
         <v>0.33333333333333331</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="7" t="s">
+    <row r="13" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="1" t="s">
         <v>152</v>
       </c>
-      <c r="B13" s="8">
+      <c r="B13" s="2">
         <v>60</v>
       </c>
-      <c r="C13" s="2" t="s">
+      <c r="C13" t="s">
         <v>276</v>
       </c>
-      <c r="D13" s="2" t="s">
+      <c r="D13" t="s">
         <v>277</v>
       </c>
-      <c r="E13" s="2" t="s">
-        <v>151</v>
-      </c>
-      <c r="F13" s="2">
+      <c r="E13" t="s">
+        <v>151</v>
+      </c>
+      <c r="F13">
         <f t="shared" si="0"/>
         <v>0.33333333333333331</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="7" t="s">
+    <row r="14" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="1" t="s">
         <v>153</v>
       </c>
-      <c r="B14" s="8">
+      <c r="B14" s="2">
         <v>62</v>
       </c>
-      <c r="C14" s="2" t="s">
+      <c r="C14" t="s">
         <v>274</v>
       </c>
-      <c r="D14" s="2" t="s">
+      <c r="D14" t="s">
         <v>278</v>
       </c>
-      <c r="E14" s="2" t="s">
-        <v>151</v>
-      </c>
-      <c r="F14" s="2">
+      <c r="E14" t="s">
+        <v>151</v>
+      </c>
+      <c r="F14">
         <f t="shared" si="0"/>
         <v>0.33333333333333331</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="7" t="s">
+    <row r="15" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="1" t="s">
         <v>154</v>
       </c>
-      <c r="B15" s="8">
+      <c r="B15" s="2">
         <v>70</v>
       </c>
-      <c r="C15" s="2" t="s">
+      <c r="C15" t="s">
         <v>279</v>
       </c>
-      <c r="D15" s="2" t="s">
+      <c r="D15" t="s">
         <v>280</v>
       </c>
-      <c r="E15" s="2" t="s">
-        <v>151</v>
-      </c>
-      <c r="F15" s="2">
+      <c r="E15" t="s">
+        <v>151</v>
+      </c>
+      <c r="F15">
         <f t="shared" si="0"/>
         <v>0.33333333333333331</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="7" t="s">
+    <row r="16" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="B16" s="8">
+      <c r="B16" s="2">
         <v>72</v>
       </c>
-      <c r="C16" s="2" t="s">
+      <c r="C16" t="s">
         <v>274</v>
       </c>
-      <c r="D16" s="2" t="s">
+      <c r="D16" t="s">
         <v>281</v>
       </c>
-      <c r="E16" s="2" t="s">
-        <v>151</v>
-      </c>
-      <c r="F16" s="2">
+      <c r="E16" t="s">
+        <v>151</v>
+      </c>
+      <c r="F16">
         <f t="shared" si="0"/>
         <v>0.33333333333333331</v>
       </c>
     </row>
-    <row r="17" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="7" t="s">
+    <row r="17" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="1" t="s">
         <v>156</v>
       </c>
-      <c r="B17" s="8">
+      <c r="B17" s="2">
         <v>80</v>
       </c>
-      <c r="C17" s="2" t="s">
+      <c r="C17" t="s">
         <v>282</v>
       </c>
-      <c r="D17" s="2" t="s">
+      <c r="D17" t="s">
         <v>283</v>
       </c>
-      <c r="E17" s="2" t="s">
+      <c r="E17" t="s">
         <v>157</v>
       </c>
-      <c r="F17" s="2">
+      <c r="F17">
         <f t="shared" si="0"/>
         <v>0.33333333333333331</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="7" t="s">
+    <row r="18" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="B18" s="8">
+      <c r="B18" s="2">
         <v>82</v>
       </c>
-      <c r="C18" s="2" t="s">
+      <c r="C18" t="s">
         <v>284</v>
       </c>
-      <c r="D18" s="2" t="s">
+      <c r="D18" t="s">
         <v>285</v>
       </c>
-      <c r="E18" s="2" t="s">
+      <c r="E18" t="s">
         <v>157</v>
       </c>
-      <c r="F18" s="2">
+      <c r="F18">
         <f t="shared" si="0"/>
         <v>0.33333333333333331</v>
       </c>
     </row>
-    <row r="19" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="7" t="s">
+    <row r="19" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A19" s="1" t="s">
         <v>224</v>
       </c>
-      <c r="B19" s="8">
+      <c r="B19" s="2">
         <v>90</v>
       </c>
-      <c r="C19" s="2" t="s">
+      <c r="C19" t="s">
         <v>286</v>
       </c>
-      <c r="D19" s="2" t="s">
+      <c r="D19" t="s">
         <v>287</v>
       </c>
-      <c r="E19" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="F19" s="2">
+      <c r="E19" t="s">
+        <v>145</v>
+      </c>
+      <c r="F19">
         <f t="shared" si="0"/>
         <v>0.33333333333333331</v>
       </c>
     </row>
-    <row r="20" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="7" t="s">
+    <row r="20" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A20" s="1" t="s">
         <v>159</v>
       </c>
-      <c r="B20" s="8">
+      <c r="B20" s="2">
         <v>4600</v>
       </c>
-      <c r="C20" s="2" t="s">
+      <c r="C20" t="s">
         <v>288</v>
       </c>
-      <c r="D20" s="2" t="s">
+      <c r="D20" t="s">
         <v>289</v>
       </c>
-      <c r="E20" s="2" t="s">
-        <v>151</v>
-      </c>
-      <c r="F20" s="2">
+      <c r="E20" t="s">
+        <v>151</v>
+      </c>
+      <c r="F20">
         <f t="shared" si="0"/>
         <v>0.33333333333333331</v>
       </c>
     </row>
-    <row r="21" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="7" t="s">
+    <row r="21" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A21" s="1" t="s">
         <v>230</v>
       </c>
-      <c r="B21" s="8">
+      <c r="B21" s="2">
         <v>5000</v>
       </c>
-      <c r="C21" s="2" t="s">
+      <c r="C21" t="s">
         <v>290</v>
       </c>
-      <c r="D21" s="2" t="s">
+      <c r="D21" t="s">
         <v>291</v>
       </c>
-      <c r="E21" s="2" t="s">
-        <v>151</v>
-      </c>
-      <c r="F21" s="2">
+      <c r="E21" t="s">
+        <v>151</v>
+      </c>
+      <c r="F21">
         <f t="shared" si="0"/>
         <v>0.33333333333333331</v>
       </c>
     </row>
-    <row r="22" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="7" t="s">
+    <row r="22" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A22" s="1" t="s">
         <v>292</v>
       </c>
-      <c r="B22" s="8">
+      <c r="B22" s="2">
         <v>7400</v>
       </c>
-      <c r="C22" s="2" t="s">
+      <c r="C22" t="s">
         <v>293</v>
       </c>
-      <c r="D22" s="2" t="s">
+      <c r="D22" t="s">
         <v>294</v>
       </c>
-      <c r="E22" s="2" t="s">
+      <c r="E22" t="s">
         <v>295</v>
       </c>
-      <c r="F22" s="2">
+      <c r="F22">
         <f t="shared" si="0"/>
         <v>0.33333333333333331</v>
       </c>
@@ -6864,159 +6801,159 @@
       <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="10" t="s">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" s="3" t="s">
         <v>310</v>
       </c>
-      <c r="B1" s="10" t="s">
+      <c r="B1" s="3" t="s">
         <v>312</v>
       </c>
-      <c r="C1" s="10" t="s">
+      <c r="C1" s="3" t="s">
         <v>311</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="9" t="s">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
         <v>184</v>
       </c>
-      <c r="B2" s="9" t="s">
-        <v>151</v>
-      </c>
-      <c r="C2" s="9" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="9" t="s">
+      <c r="B2" t="s">
+        <v>151</v>
+      </c>
+      <c r="C2" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
         <v>187</v>
       </c>
-      <c r="B3" s="9" t="s">
+      <c r="B3" t="s">
         <v>188</v>
       </c>
-      <c r="C3" s="9" t="s">
+      <c r="C3" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="9" t="s">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
         <v>189</v>
       </c>
-      <c r="B4" s="9" t="s">
+      <c r="B4" t="s">
         <v>139</v>
       </c>
-      <c r="C4" s="9" t="s">
+      <c r="C4" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="9" t="s">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
         <v>296</v>
       </c>
-      <c r="B5" s="9" t="s">
+      <c r="B5" t="s">
         <v>297</v>
       </c>
-      <c r="C5" s="9" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="9" t="s">
+      <c r="C5" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
         <v>298</v>
       </c>
-      <c r="B6" s="9" t="s">
+      <c r="B6" t="s">
         <v>299</v>
       </c>
-      <c r="C6" s="9" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="9" t="s">
+      <c r="C6" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
         <v>190</v>
       </c>
-      <c r="B7" s="9" t="s">
+      <c r="B7" t="s">
         <v>157</v>
       </c>
-      <c r="C7" s="9" t="s">
+      <c r="C7" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" s="9" t="s">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
         <v>300</v>
       </c>
-      <c r="B8" s="9" t="s">
+      <c r="B8" t="s">
         <v>301</v>
       </c>
-      <c r="C8" s="9" t="s">
+      <c r="C8" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" s="9" t="s">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
         <v>191</v>
       </c>
-      <c r="B9" s="9" t="s">
+      <c r="B9" t="s">
         <v>302</v>
       </c>
-      <c r="C9" s="9" t="s">
+      <c r="C9" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" s="9" t="s">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
         <v>195</v>
       </c>
-      <c r="B10" s="9" t="s">
+      <c r="B10" t="s">
         <v>303</v>
       </c>
-      <c r="C10" s="9" t="s">
+      <c r="C10" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" s="9" t="s">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
         <v>201</v>
       </c>
-      <c r="B11" s="9" t="s">
+      <c r="B11" t="s">
         <v>304</v>
       </c>
-      <c r="C11" s="9" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" s="9" t="s">
+      <c r="C11" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
         <v>206</v>
       </c>
-      <c r="B12" s="9" t="s">
+      <c r="B12" t="s">
         <v>305</v>
       </c>
-      <c r="C12" s="9" t="s">
+      <c r="C12" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" s="9" t="s">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
         <v>306</v>
       </c>
-      <c r="B13" s="9" t="s">
+      <c r="B13" t="s">
         <v>307</v>
       </c>
-      <c r="C13" s="9" t="s">
+      <c r="C13" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" s="9" t="s">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
         <v>308</v>
       </c>
-      <c r="B14" s="9" t="s">
+      <c r="B14" t="s">
         <v>309</v>
       </c>
-      <c r="C14" s="9" t="s">
+      <c r="C14" t="s">
         <v>151</v>
       </c>
     </row>

--- a/resources/property classes.xlsx
+++ b/resources/property classes.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27231"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://cmapil-my.sharepoint.com/personal/abahls_cmap_illinois_gov/Documents/Documents/github_repos/effective_property_tax/resources/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2" documentId="13_ncr:1_{2A60A013-1040-4DEC-B76C-0C647DD12EE2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BF013571-E9D9-4AA3-8254-A6847BA48987}"/>
+  <xr:revisionPtr revIDLastSave="56" documentId="13_ncr:1_{2A60A013-1040-4DEC-B76C-0C647DD12EE2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{87BC2CD5-1BD5-4255-8696-96F6A218081D}"/>
   <bookViews>
     <workbookView xWindow="17445" yWindow="-16320" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,8 +23,8 @@
     <sheet name="will" sheetId="7" r:id="rId8"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Cook!$A$1:$G$150</definedName>
-    <definedName name="Export_Output_2" localSheetId="0">Cook!$A$1:$E$134</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Cook!$A$1:$G$153</definedName>
+    <definedName name="Export_Output_2" localSheetId="0">Cook!$A$1:$E$137</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="932" uniqueCount="342">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="945" uniqueCount="345">
   <si>
     <t>overall_class</t>
   </si>
@@ -1071,13 +1071,22 @@
   </si>
   <si>
     <t>land_use_code</t>
+  </si>
+  <si>
+    <t>Commercial Incentive Land</t>
+  </si>
+  <si>
+    <t>5000-Locally Assessed Railroad</t>
+  </si>
+  <si>
+    <t>Greenhouse incentive</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1108,6 +1117,14 @@
     </font>
     <font>
       <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -1145,10 +1162,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
@@ -1160,8 +1178,10 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1440,10 +1460,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G150"/>
+  <dimension ref="A1:G153"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="C28" sqref="C28"/>
+    <sheetView tabSelected="1" topLeftCell="A106" workbookViewId="0">
+      <selection activeCell="C123" sqref="C123"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3043,7 +3063,7 @@
         <v>527</v>
       </c>
       <c r="B67" t="str">
-        <f t="shared" ref="B67:B130" si="1">TEXT(A67,"000")</f>
+        <f t="shared" ref="B67:B133" si="1">TEXT(A67,"000")</f>
         <v>527</v>
       </c>
       <c r="C67" t="s">
@@ -3568,23 +3588,23 @@
     </row>
     <row r="89" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A89">
-        <v>654</v>
+        <v>651</v>
       </c>
       <c r="B89" t="str">
         <f t="shared" si="1"/>
-        <v>654</v>
+        <v>651</v>
       </c>
       <c r="C89" t="s">
-        <v>100</v>
+        <v>82</v>
       </c>
       <c r="D89" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="E89" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="F89">
-        <v>0.1</v>
+        <v>0.101743</v>
       </c>
       <c r="G89" t="s">
         <v>157</v>
@@ -3592,14 +3612,14 @@
     </row>
     <row r="90" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A90">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="B90" t="str">
         <f t="shared" si="1"/>
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="C90" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D90" t="s">
         <v>97</v>
@@ -3616,23 +3636,23 @@
     </row>
     <row r="91" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A91">
-        <v>663</v>
+        <v>655</v>
       </c>
       <c r="B91" t="str">
         <f t="shared" si="1"/>
-        <v>663</v>
+        <v>655</v>
       </c>
       <c r="C91" t="s">
-        <v>93</v>
+        <v>101</v>
       </c>
       <c r="D91" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="E91" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="F91">
-        <v>0.108333</v>
+        <v>0.1</v>
       </c>
       <c r="G91" t="s">
         <v>157</v>
@@ -3640,23 +3660,23 @@
     </row>
     <row r="92" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A92">
-        <v>668</v>
+        <v>663</v>
       </c>
       <c r="B92" t="str">
         <f t="shared" si="1"/>
-        <v>668</v>
+        <v>663</v>
       </c>
       <c r="C92" t="s">
-        <v>104</v>
+        <v>93</v>
       </c>
       <c r="D92" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="E92" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="F92">
-        <v>0.1</v>
+        <v>0.108333</v>
       </c>
       <c r="G92" t="s">
         <v>157</v>
@@ -3664,23 +3684,23 @@
     </row>
     <row r="93" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A93">
-        <v>670</v>
+        <v>668</v>
       </c>
       <c r="B93" t="str">
         <f t="shared" si="1"/>
-        <v>670</v>
+        <v>668</v>
       </c>
       <c r="C93" t="s">
-        <v>85</v>
+        <v>104</v>
       </c>
       <c r="D93" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="E93" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="F93">
-        <v>0.108333</v>
+        <v>0.1</v>
       </c>
       <c r="G93" t="s">
         <v>157</v>
@@ -3688,14 +3708,14 @@
     </row>
     <row r="94" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A94">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="B94" t="str">
         <f t="shared" si="1"/>
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="C94" t="s">
-        <v>105</v>
+        <v>85</v>
       </c>
       <c r="D94" t="s">
         <v>102</v>
@@ -3712,14 +3732,14 @@
     </row>
     <row r="95" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A95">
-        <v>673</v>
+        <v>671</v>
       </c>
       <c r="B95" t="str">
         <f t="shared" si="1"/>
-        <v>673</v>
+        <v>671</v>
       </c>
       <c r="C95" t="s">
-        <v>87</v>
+        <v>105</v>
       </c>
       <c r="D95" t="s">
         <v>102</v>
@@ -3736,14 +3756,14 @@
     </row>
     <row r="96" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A96">
-        <v>677</v>
+        <v>673</v>
       </c>
       <c r="B96" t="str">
         <f t="shared" si="1"/>
-        <v>677</v>
+        <v>673</v>
       </c>
       <c r="C96" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D96" t="s">
         <v>102</v>
@@ -3760,14 +3780,14 @@
     </row>
     <row r="97" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A97">
-        <v>679</v>
+        <v>677</v>
       </c>
       <c r="B97" t="str">
         <f t="shared" si="1"/>
-        <v>679</v>
+        <v>677</v>
       </c>
       <c r="C97" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D97" t="s">
         <v>102</v>
@@ -3784,23 +3804,23 @@
     </row>
     <row r="98" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A98">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="B98" t="str">
         <f t="shared" si="1"/>
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="C98" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="D98" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="E98" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="F98">
-        <v>0.2</v>
+        <v>0.108333</v>
       </c>
       <c r="G98" t="s">
         <v>157</v>
@@ -3808,14 +3828,14 @@
     </row>
     <row r="99" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A99">
-        <v>683</v>
+        <v>680</v>
       </c>
       <c r="B99" t="str">
         <f t="shared" si="1"/>
-        <v>683</v>
+        <v>680</v>
       </c>
       <c r="C99" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="D99" t="s">
         <v>106</v>
@@ -3832,14 +3852,14 @@
     </row>
     <row r="100" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A100">
-        <v>687</v>
+        <v>683</v>
       </c>
       <c r="B100" t="str">
         <f t="shared" si="1"/>
-        <v>687</v>
+        <v>683</v>
       </c>
       <c r="C100" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D100" t="s">
         <v>106</v>
@@ -3856,14 +3876,14 @@
     </row>
     <row r="101" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A101">
-        <v>693</v>
+        <v>687</v>
       </c>
       <c r="B101" t="str">
         <f t="shared" si="1"/>
-        <v>693</v>
+        <v>687</v>
       </c>
       <c r="C101" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="D101" t="s">
         <v>106</v>
@@ -3880,38 +3900,38 @@
     </row>
     <row r="102" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A102">
-        <v>717</v>
+        <v>693</v>
       </c>
       <c r="B102" t="str">
         <f t="shared" si="1"/>
-        <v>717</v>
+        <v>693</v>
       </c>
       <c r="C102" t="s">
-        <v>108</v>
+        <v>93</v>
       </c>
       <c r="D102" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="E102" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="F102">
-        <v>0.101743</v>
+        <v>0.2</v>
       </c>
       <c r="G102" t="s">
-        <v>151</v>
+        <v>157</v>
       </c>
     </row>
     <row r="103" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A103">
-        <v>722</v>
+        <v>717</v>
       </c>
       <c r="B103" t="str">
         <f t="shared" si="1"/>
-        <v>722</v>
+        <v>717</v>
       </c>
       <c r="C103" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="D103" t="s">
         <v>109</v>
@@ -3928,14 +3948,14 @@
     </row>
     <row r="104" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A104">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="B104" t="str">
         <f t="shared" si="1"/>
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="C104" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D104" t="s">
         <v>109</v>
@@ -3952,14 +3972,14 @@
     </row>
     <row r="105" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A105">
-        <v>728</v>
+        <v>723</v>
       </c>
       <c r="B105" t="str">
         <f t="shared" si="1"/>
-        <v>728</v>
+        <v>723</v>
       </c>
       <c r="C105" t="s">
-        <v>75</v>
+        <v>112</v>
       </c>
       <c r="D105" t="s">
         <v>109</v>
@@ -3976,14 +3996,14 @@
     </row>
     <row r="106" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A106">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="B106" t="str">
         <f t="shared" si="1"/>
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="C106" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D106" t="s">
         <v>109</v>
@@ -4000,14 +4020,14 @@
     </row>
     <row r="107" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A107">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="B107" t="str">
         <f t="shared" si="1"/>
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="C107" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D107" t="s">
         <v>109</v>
@@ -4024,14 +4044,14 @@
     </row>
     <row r="108" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A108">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="B108" t="str">
         <f t="shared" si="1"/>
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="C108" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D108" t="s">
         <v>109</v>
@@ -4048,20 +4068,20 @@
     </row>
     <row r="109" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A109">
-        <v>746</v>
+        <v>731</v>
       </c>
       <c r="B109" t="str">
         <f t="shared" si="1"/>
-        <v>746</v>
+        <v>731</v>
       </c>
       <c r="C109" t="s">
-        <v>113</v>
+        <v>78</v>
       </c>
       <c r="D109" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="E109" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="F109">
         <v>0.101743</v>
@@ -4072,14 +4092,14 @@
     </row>
     <row r="110" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A110">
-        <v>748</v>
+        <v>746</v>
       </c>
       <c r="B110" t="str">
         <f t="shared" si="1"/>
-        <v>748</v>
+        <v>746</v>
       </c>
       <c r="C110" t="s">
-        <v>76</v>
+        <v>113</v>
       </c>
       <c r="D110" t="s">
         <v>114</v>
@@ -4096,14 +4116,14 @@
     </row>
     <row r="111" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A111">
-        <v>752</v>
+        <v>748</v>
       </c>
       <c r="B111" t="str">
         <f t="shared" si="1"/>
-        <v>752</v>
+        <v>748</v>
       </c>
       <c r="C111" t="s">
-        <v>111</v>
+        <v>76</v>
       </c>
       <c r="D111" t="s">
         <v>114</v>
@@ -4120,14 +4140,14 @@
     </row>
     <row r="112" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A112">
-        <v>760</v>
+        <v>752</v>
       </c>
       <c r="B112" t="str">
         <f t="shared" si="1"/>
-        <v>760</v>
+        <v>752</v>
       </c>
       <c r="C112" t="s">
-        <v>77</v>
+        <v>111</v>
       </c>
       <c r="D112" t="s">
         <v>114</v>
@@ -4144,14 +4164,14 @@
     </row>
     <row r="113" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A113">
-        <v>765</v>
+        <v>760</v>
       </c>
       <c r="B113" t="str">
         <f t="shared" si="1"/>
-        <v>765</v>
+        <v>760</v>
       </c>
       <c r="C113" t="s">
-        <v>116</v>
+        <v>77</v>
       </c>
       <c r="D113" t="s">
         <v>114</v>
@@ -4168,14 +4188,14 @@
     </row>
     <row r="114" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A114">
-        <v>767</v>
+        <v>765</v>
       </c>
       <c r="B114" t="str">
         <f t="shared" si="1"/>
-        <v>767</v>
+        <v>765</v>
       </c>
       <c r="C114" t="s">
-        <v>94</v>
+        <v>116</v>
       </c>
       <c r="D114" t="s">
         <v>114</v>
@@ -4192,14 +4212,14 @@
     </row>
     <row r="115" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A115">
-        <v>774</v>
+        <v>767</v>
       </c>
       <c r="B115" t="str">
         <f t="shared" si="1"/>
-        <v>774</v>
+        <v>767</v>
       </c>
       <c r="C115" t="s">
-        <v>117</v>
+        <v>94</v>
       </c>
       <c r="D115" t="s">
         <v>114</v>
@@ -4216,20 +4236,20 @@
     </row>
     <row r="116" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A116">
-        <v>790</v>
+        <v>774</v>
       </c>
       <c r="B116" t="str">
         <f t="shared" si="1"/>
-        <v>790</v>
+        <v>774</v>
       </c>
       <c r="C116" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D116" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="E116" t="s">
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="F116">
         <v>0.101743</v>
@@ -4240,14 +4260,14 @@
     </row>
     <row r="117" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A117">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="B117" t="str">
         <f t="shared" si="1"/>
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="C117" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D117" t="s">
         <v>109</v>
@@ -4264,14 +4284,14 @@
     </row>
     <row r="118" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A118">
-        <v>792</v>
+        <v>791</v>
       </c>
       <c r="B118" t="str">
         <f t="shared" si="1"/>
-        <v>792</v>
+        <v>791</v>
       </c>
       <c r="C118" t="s">
-        <v>92</v>
+        <v>119</v>
       </c>
       <c r="D118" t="s">
         <v>109</v>
@@ -4288,14 +4308,14 @@
     </row>
     <row r="119" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A119">
-        <v>797</v>
+        <v>792</v>
       </c>
       <c r="B119" t="str">
         <f t="shared" si="1"/>
-        <v>797</v>
+        <v>792</v>
       </c>
       <c r="C119" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="D119" t="s">
         <v>109</v>
@@ -4312,14 +4332,14 @@
     </row>
     <row r="120" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A120">
-        <v>799</v>
+        <v>797</v>
       </c>
       <c r="B120" t="str">
         <f t="shared" si="1"/>
-        <v>799</v>
+        <v>797</v>
       </c>
       <c r="C120" t="s">
-        <v>120</v>
+        <v>94</v>
       </c>
       <c r="D120" t="s">
         <v>109</v>
@@ -4336,20 +4356,20 @@
     </row>
     <row r="121" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A121">
-        <v>801</v>
+        <v>799</v>
       </c>
       <c r="B121" t="str">
         <f t="shared" si="1"/>
-        <v>801</v>
+        <v>799</v>
       </c>
       <c r="C121" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D121" t="s">
-        <v>122</v>
+        <v>109</v>
       </c>
       <c r="E121" t="s">
-        <v>123</v>
+        <v>110</v>
       </c>
       <c r="F121">
         <v>0.101743</v>
@@ -4360,17 +4380,17 @@
     </row>
     <row r="122" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A122">
-        <v>817</v>
+        <v>800</v>
       </c>
       <c r="B122" t="str">
         <f t="shared" si="1"/>
-        <v>817</v>
+        <v>800</v>
       </c>
       <c r="C122" t="s">
-        <v>70</v>
-      </c>
-      <c r="D122" t="s">
-        <v>122</v>
+        <v>342</v>
+      </c>
+      <c r="D122">
+        <v>8</v>
       </c>
       <c r="E122" t="s">
         <v>123</v>
@@ -4384,14 +4404,14 @@
     </row>
     <row r="123" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A123">
-        <v>823</v>
+        <v>801</v>
       </c>
       <c r="B123" t="str">
         <f t="shared" si="1"/>
-        <v>823</v>
+        <v>801</v>
       </c>
       <c r="C123" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="D123" t="s">
         <v>122</v>
@@ -4408,14 +4428,14 @@
     </row>
     <row r="124" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A124">
-        <v>827</v>
+        <v>817</v>
       </c>
       <c r="B124" t="str">
         <f t="shared" si="1"/>
-        <v>827</v>
+        <v>817</v>
       </c>
       <c r="C124" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="D124" t="s">
         <v>122</v>
@@ -4432,14 +4452,14 @@
     </row>
     <row r="125" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A125">
-        <v>828</v>
+        <v>823</v>
       </c>
       <c r="B125" t="str">
         <f t="shared" si="1"/>
-        <v>828</v>
+        <v>823</v>
       </c>
       <c r="C125" t="s">
-        <v>75</v>
+        <v>124</v>
       </c>
       <c r="D125" t="s">
         <v>122</v>
@@ -4456,14 +4476,14 @@
     </row>
     <row r="126" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A126">
-        <v>829</v>
+        <v>826</v>
       </c>
       <c r="B126" t="str">
         <f t="shared" si="1"/>
-        <v>829</v>
-      </c>
-      <c r="C126" t="s">
-        <v>76</v>
+        <v>826</v>
+      </c>
+      <c r="C126" s="7" t="s">
+        <v>344</v>
       </c>
       <c r="D126" t="s">
         <v>122</v>
@@ -4480,14 +4500,14 @@
     </row>
     <row r="127" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A127">
-        <v>830</v>
+        <v>827</v>
       </c>
       <c r="B127" t="str">
         <f t="shared" si="1"/>
-        <v>830</v>
+        <v>827</v>
       </c>
       <c r="C127" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="D127" t="s">
         <v>122</v>
@@ -4504,14 +4524,14 @@
     </row>
     <row r="128" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A128">
-        <v>831</v>
+        <v>828</v>
       </c>
       <c r="B128" t="str">
         <f t="shared" si="1"/>
-        <v>831</v>
+        <v>828</v>
       </c>
       <c r="C128" t="s">
-        <v>125</v>
+        <v>75</v>
       </c>
       <c r="D128" t="s">
         <v>122</v>
@@ -4528,14 +4548,14 @@
     </row>
     <row r="129" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A129">
-        <v>833</v>
+        <v>829</v>
       </c>
       <c r="B129" t="str">
         <f t="shared" si="1"/>
-        <v>833</v>
+        <v>829</v>
       </c>
       <c r="C129" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="D129" t="s">
         <v>122</v>
@@ -4552,17 +4572,17 @@
     </row>
     <row r="130" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A130">
-        <v>880</v>
+        <v>830</v>
       </c>
       <c r="B130" t="str">
         <f t="shared" si="1"/>
-        <v>880</v>
+        <v>830</v>
       </c>
       <c r="C130" t="s">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="D130" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="E130" t="s">
         <v>123</v>
@@ -4571,22 +4591,22 @@
         <v>0.101743</v>
       </c>
       <c r="G130" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
     </row>
     <row r="131" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A131">
-        <v>881</v>
+        <v>831</v>
       </c>
       <c r="B131" t="str">
-        <f t="shared" ref="B131:B150" si="2">TEXT(A131,"000")</f>
-        <v>881</v>
+        <f t="shared" si="1"/>
+        <v>831</v>
       </c>
       <c r="C131" t="s">
-        <v>105</v>
+        <v>125</v>
       </c>
       <c r="D131" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="E131" t="s">
         <v>123</v>
@@ -4595,469 +4615,544 @@
         <v>0.101743</v>
       </c>
       <c r="G131" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
     </row>
     <row r="132" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A132">
+        <v>833</v>
+      </c>
+      <c r="B132" t="str">
+        <f t="shared" si="1"/>
+        <v>833</v>
+      </c>
+      <c r="C132" t="s">
+        <v>80</v>
+      </c>
+      <c r="D132" t="s">
+        <v>122</v>
+      </c>
+      <c r="E132" t="s">
+        <v>123</v>
+      </c>
+      <c r="F132">
+        <v>0.101743</v>
+      </c>
+      <c r="G132" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="133" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A133">
+        <v>880</v>
+      </c>
+      <c r="B133" t="str">
+        <f t="shared" si="1"/>
+        <v>880</v>
+      </c>
+      <c r="C133" t="s">
+        <v>85</v>
+      </c>
+      <c r="D133" t="s">
+        <v>126</v>
+      </c>
+      <c r="E133" t="s">
+        <v>123</v>
+      </c>
+      <c r="F133">
+        <v>0.101743</v>
+      </c>
+      <c r="G133" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="134" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A134">
+        <v>881</v>
+      </c>
+      <c r="B134" t="str">
+        <f t="shared" ref="B134:B153" si="2">TEXT(A134,"000")</f>
+        <v>881</v>
+      </c>
+      <c r="C134" t="s">
+        <v>105</v>
+      </c>
+      <c r="D134" t="s">
+        <v>126</v>
+      </c>
+      <c r="E134" t="s">
+        <v>123</v>
+      </c>
+      <c r="F134">
+        <v>0.101743</v>
+      </c>
+      <c r="G134" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="135" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A135">
         <v>883</v>
       </c>
-      <c r="B132" t="str">
+      <c r="B135" t="str">
         <f t="shared" si="2"/>
         <v>883</v>
       </c>
-      <c r="C132" t="s">
+      <c r="C135" t="s">
         <v>80</v>
       </c>
-      <c r="D132" t="s">
+      <c r="D135" t="s">
         <v>126</v>
       </c>
-      <c r="E132" t="s">
+      <c r="E135" t="s">
         <v>123</v>
       </c>
-      <c r="F132">
+      <c r="F135">
         <v>0.101743</v>
       </c>
-      <c r="G132" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="133" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A133">
+      <c r="G135" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="136" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A136">
         <v>887</v>
       </c>
-      <c r="B133" t="str">
+      <c r="B136" t="str">
         <f t="shared" si="2"/>
         <v>887</v>
       </c>
-      <c r="C133" t="s">
+      <c r="C136" t="s">
         <v>88</v>
       </c>
-      <c r="D133" t="s">
+      <c r="D136" t="s">
         <v>126</v>
       </c>
-      <c r="E133" t="s">
+      <c r="E136" t="s">
         <v>123</v>
       </c>
-      <c r="F133">
+      <c r="F136">
         <v>0.101743</v>
       </c>
-      <c r="G133" t="s">
+      <c r="G136" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="134" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A134">
+    <row r="137" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A137">
         <v>889</v>
       </c>
-      <c r="B134" t="str">
+      <c r="B137" t="str">
         <f t="shared" si="2"/>
         <v>889</v>
       </c>
-      <c r="C134" t="s">
+      <c r="C137" t="s">
         <v>89</v>
       </c>
-      <c r="D134" t="s">
+      <c r="D137" t="s">
         <v>126</v>
       </c>
-      <c r="E134" t="s">
+      <c r="E137" t="s">
         <v>123</v>
       </c>
-      <c r="F134">
+      <c r="F137">
         <v>0.101743</v>
       </c>
-      <c r="G134" t="s">
+      <c r="G137" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="135" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A135">
+    <row r="138" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A138">
         <v>890</v>
       </c>
-      <c r="B135" t="str">
+      <c r="B138" t="str">
         <f t="shared" si="2"/>
         <v>890</v>
       </c>
-      <c r="C135" t="s">
+      <c r="C138" t="s">
         <v>127</v>
       </c>
-      <c r="D135" t="s">
+      <c r="D138" t="s">
         <v>126</v>
       </c>
-      <c r="E135" t="s">
+      <c r="E138" t="s">
         <v>123</v>
       </c>
-      <c r="F135">
+      <c r="F138">
         <v>0.101743</v>
       </c>
-      <c r="G135" t="s">
+      <c r="G138" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="136" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A136">
+    <row r="139" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A139">
         <v>891</v>
       </c>
-      <c r="B136" t="str">
+      <c r="B139" t="str">
         <f t="shared" si="2"/>
         <v>891</v>
       </c>
-      <c r="C136" t="s">
+      <c r="C139" t="s">
         <v>117</v>
       </c>
-      <c r="D136" t="s">
+      <c r="D139" t="s">
         <v>122</v>
       </c>
-      <c r="E136" t="s">
+      <c r="E139" t="s">
         <v>123</v>
       </c>
-      <c r="F136">
+      <c r="F139">
         <v>0.101743</v>
       </c>
-      <c r="G136" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="137" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A137">
+      <c r="G139" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="140" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A140">
         <v>892</v>
       </c>
-      <c r="B137" t="str">
+      <c r="B140" t="str">
         <f t="shared" si="2"/>
         <v>892</v>
       </c>
-      <c r="C137" t="s">
+      <c r="C140" t="s">
         <v>92</v>
       </c>
-      <c r="D137" t="s">
+      <c r="D140" t="s">
         <v>122</v>
       </c>
-      <c r="E137" t="s">
+      <c r="E140" t="s">
         <v>123</v>
       </c>
-      <c r="F137">
+      <c r="F140">
         <v>0.101743</v>
       </c>
-      <c r="G137" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="138" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A138">
+      <c r="G140" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="141" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A141">
         <v>893</v>
       </c>
-      <c r="B138" t="str">
+      <c r="B141" t="str">
         <f t="shared" si="2"/>
         <v>893</v>
       </c>
-      <c r="C138" t="s">
+      <c r="C141" t="s">
         <v>93</v>
       </c>
-      <c r="D138" t="s">
+      <c r="D141" t="s">
         <v>126</v>
       </c>
-      <c r="E138" t="s">
+      <c r="E141" t="s">
         <v>123</v>
       </c>
-      <c r="F138">
+      <c r="F141">
         <v>0.101743</v>
       </c>
-      <c r="G138" t="s">
+      <c r="G141" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="139" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A139">
+    <row r="142" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A142">
         <v>897</v>
       </c>
-      <c r="B139" t="str">
+      <c r="B142" t="str">
         <f t="shared" si="2"/>
         <v>897</v>
       </c>
-      <c r="C139" t="s">
+      <c r="C142" t="s">
         <v>94</v>
       </c>
-      <c r="D139" t="s">
+      <c r="D142" t="s">
         <v>122</v>
       </c>
-      <c r="E139" t="s">
+      <c r="E142" t="s">
         <v>123</v>
       </c>
-      <c r="F139">
+      <c r="F142">
         <v>0.101743</v>
       </c>
-      <c r="G139" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="140" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A140">
+      <c r="G142" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="143" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A143">
         <v>899</v>
       </c>
-      <c r="B140" t="str">
+      <c r="B143" t="str">
         <f t="shared" si="2"/>
         <v>899</v>
       </c>
-      <c r="C140" t="s">
+      <c r="C143" t="s">
         <v>128</v>
       </c>
-      <c r="D140" t="s">
+      <c r="D143" t="s">
         <v>126</v>
       </c>
-      <c r="E140" t="s">
+      <c r="E143" t="s">
         <v>123</v>
       </c>
-      <c r="F140">
+      <c r="F143">
         <v>0.101743</v>
       </c>
-      <c r="G140" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="141" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A141">
+      <c r="G143" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="144" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A144">
         <v>900</v>
       </c>
-      <c r="B141" t="str">
+      <c r="B144" t="str">
         <f t="shared" si="2"/>
         <v>900</v>
       </c>
-      <c r="C141" t="s">
+      <c r="C144" t="s">
         <v>129</v>
       </c>
-      <c r="D141">
+      <c r="D144">
         <v>9</v>
       </c>
-      <c r="E141" t="s">
+      <c r="E144" t="s">
         <v>130</v>
       </c>
-      <c r="F141">
+      <c r="F144">
         <v>0.1</v>
       </c>
-      <c r="G141" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="142" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A142">
+      <c r="G144" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="145" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A145">
         <v>913</v>
       </c>
-      <c r="B142" t="str">
+      <c r="B145" t="str">
         <f t="shared" si="2"/>
         <v>913</v>
       </c>
-      <c r="C142" t="s">
+      <c r="C145" t="s">
         <v>131</v>
       </c>
-      <c r="D142">
+      <c r="D145">
         <v>9</v>
       </c>
-      <c r="E142" t="s">
+      <c r="E145" t="s">
         <v>130</v>
       </c>
-      <c r="F142">
+      <c r="F145">
         <v>0.1</v>
       </c>
-      <c r="G142" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="143" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A143">
+      <c r="G145" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="146" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A146">
         <v>914</v>
       </c>
-      <c r="B143" t="str">
+      <c r="B146" t="str">
         <f t="shared" si="2"/>
         <v>914</v>
       </c>
-      <c r="C143" t="s">
+      <c r="C146" t="s">
         <v>132</v>
       </c>
-      <c r="D143">
+      <c r="D146">
         <v>9</v>
       </c>
-      <c r="E143" t="s">
+      <c r="E146" t="s">
         <v>130</v>
       </c>
-      <c r="F143">
+      <c r="F146">
         <v>0.1</v>
       </c>
-      <c r="G143" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="144" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A144">
+      <c r="G146" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="147" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A147">
         <v>915</v>
       </c>
-      <c r="B144" t="str">
+      <c r="B147" t="str">
         <f t="shared" si="2"/>
         <v>915</v>
       </c>
-      <c r="C144" t="s">
+      <c r="C147" t="s">
         <v>133</v>
       </c>
-      <c r="D144">
+      <c r="D147">
         <v>9</v>
       </c>
-      <c r="E144" t="s">
+      <c r="E147" t="s">
         <v>130</v>
       </c>
-      <c r="F144">
+      <c r="F147">
         <v>0.1</v>
       </c>
-      <c r="G144" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="145" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A145">
+      <c r="G147" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="148" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A148">
         <v>918</v>
       </c>
-      <c r="B145" t="str">
+      <c r="B148" t="str">
         <f t="shared" si="2"/>
         <v>918</v>
       </c>
-      <c r="C145" t="s">
+      <c r="C148" t="s">
         <v>134</v>
       </c>
-      <c r="D145">
+      <c r="D148">
         <v>9</v>
       </c>
-      <c r="E145" t="s">
+      <c r="E148" t="s">
         <v>130</v>
       </c>
-      <c r="F145">
+      <c r="F148">
         <v>0.1</v>
       </c>
-      <c r="G145" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="146" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A146">
+      <c r="G148" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="149" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A149">
         <v>919</v>
       </c>
-      <c r="B146" t="str">
+      <c r="B149" t="str">
         <f t="shared" si="2"/>
         <v>919</v>
       </c>
-      <c r="C146" t="s">
+      <c r="C149" t="s">
         <v>135</v>
       </c>
-      <c r="D146">
+      <c r="D149">
         <v>9</v>
       </c>
-      <c r="E146" t="s">
+      <c r="E149" t="s">
         <v>130</v>
       </c>
-      <c r="F146">
+      <c r="F149">
         <v>0.1</v>
       </c>
-      <c r="G146" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="147" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A147">
+      <c r="G149" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="150" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A150">
         <v>990</v>
       </c>
-      <c r="B147" t="str">
+      <c r="B150" t="str">
         <f t="shared" si="2"/>
         <v>990</v>
       </c>
-      <c r="C147" t="s">
+      <c r="C150" t="s">
         <v>136</v>
       </c>
-      <c r="D147">
+      <c r="D150">
         <v>9</v>
       </c>
-      <c r="E147" t="s">
+      <c r="E150" t="s">
         <v>130</v>
       </c>
-      <c r="F147">
+      <c r="F150">
         <v>0.1</v>
       </c>
-      <c r="G147" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="148" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A148">
+      <c r="G150" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="151" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A151">
         <v>991</v>
       </c>
-      <c r="B148" t="str">
+      <c r="B151" t="str">
         <f t="shared" si="2"/>
         <v>991</v>
       </c>
-      <c r="C148" t="s">
+      <c r="C151" t="s">
         <v>137</v>
       </c>
-      <c r="D148">
+      <c r="D151">
         <v>9</v>
       </c>
-      <c r="E148" t="s">
+      <c r="E151" t="s">
         <v>130</v>
       </c>
-      <c r="F148">
+      <c r="F151">
         <v>0.1</v>
       </c>
-      <c r="G148" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="149" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A149">
+      <c r="G151" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="152" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A152">
         <v>996</v>
       </c>
-      <c r="B149" t="str">
+      <c r="B152" t="str">
         <f t="shared" si="2"/>
         <v>996</v>
       </c>
-      <c r="C149" t="s">
+      <c r="C152" t="s">
         <v>46</v>
       </c>
-      <c r="D149">
+      <c r="D152">
         <v>9</v>
       </c>
-      <c r="E149" t="s">
+      <c r="E152" t="s">
         <v>130</v>
       </c>
-      <c r="F149">
+      <c r="F152">
         <v>0.1</v>
       </c>
-      <c r="G149" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="150" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A150">
+      <c r="G152" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="153" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A153">
         <v>997</v>
       </c>
-      <c r="B150" t="str">
+      <c r="B153" t="str">
         <f t="shared" si="2"/>
         <v>997</v>
       </c>
-      <c r="C150" t="s">
+      <c r="C153" t="s">
         <v>47</v>
       </c>
-      <c r="D150">
+      <c r="D153">
         <v>9</v>
       </c>
-      <c r="E150" t="s">
+      <c r="E153" t="s">
         <v>130</v>
       </c>
-      <c r="F150">
+      <c r="F153">
         <v>0.1</v>
       </c>
-      <c r="G150" t="s">
+      <c r="G153" t="s">
         <v>145</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:G150" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
+  <autoFilter ref="A1:G153" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
+  <hyperlinks>
+    <hyperlink ref="C126" r:id="rId1" xr:uid="{5F41B9EB-67B4-46BF-880A-CFCA67EC1FE6}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -6027,10 +6122,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="A1:C23"/>
+  <dimension ref="A1:C24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B26" sqref="B26"/>
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6063,7 +6158,7 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="str">
-        <f t="shared" ref="A3:A23" si="0">LEFT(B3,2)</f>
+        <f t="shared" ref="A3:A24" si="0">LEFT(B3,2)</f>
         <v>12</v>
       </c>
       <c r="B3" t="s">
@@ -6182,15 +6277,15 @@
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A13" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>60</v>
-      </c>
-      <c r="B13" s="5" t="s">
-        <v>328</v>
-      </c>
-      <c r="C13" s="5" t="s">
-        <v>151</v>
+      <c r="A13" t="str">
+        <f t="shared" si="0"/>
+        <v>50</v>
+      </c>
+      <c r="B13" t="s">
+        <v>343</v>
+      </c>
+      <c r="C13" t="s">
+        <v>228</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
@@ -6199,31 +6294,31 @@
         <v>60</v>
       </c>
       <c r="B14" s="5" t="s">
+        <v>328</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A15" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>60</v>
+      </c>
+      <c r="B15" s="5" t="s">
         <v>329</v>
       </c>
-      <c r="C14" s="5" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A15" t="str">
-        <f t="shared" si="0"/>
-        <v>61</v>
-      </c>
-      <c r="B15" t="s">
-        <v>330</v>
-      </c>
-      <c r="C15" t="s">
+      <c r="C15" s="5" t="s">
         <v>151</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" t="str">
         <f t="shared" si="0"/>
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B16" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="C16" t="s">
         <v>151</v>
@@ -6232,10 +6327,10 @@
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" t="str">
         <f t="shared" si="0"/>
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B17" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="C17" t="s">
         <v>151</v>
@@ -6244,22 +6339,22 @@
     <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" t="str">
         <f t="shared" si="0"/>
-        <v>80</v>
+        <v>63</v>
       </c>
       <c r="B18" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="C18" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" t="str">
         <f t="shared" si="0"/>
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B19" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="C19" t="s">
         <v>157</v>
@@ -6268,10 +6363,10 @@
     <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" t="str">
         <f t="shared" si="0"/>
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B20" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="C20" t="s">
         <v>157</v>
@@ -6280,10 +6375,10 @@
     <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" t="str">
         <f t="shared" si="0"/>
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B21" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="C21" t="s">
         <v>157</v>
@@ -6292,24 +6387,36 @@
     <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" t="str">
         <f t="shared" si="0"/>
-        <v>90</v>
+        <v>83</v>
       </c>
       <c r="B22" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="C22" t="s">
-        <v>188</v>
+        <v>157</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23" t="str">
         <f t="shared" si="0"/>
+        <v>90</v>
+      </c>
+      <c r="B23" t="s">
+        <v>337</v>
+      </c>
+      <c r="C23" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A24" t="str">
+        <f t="shared" si="0"/>
         <v>MH</v>
       </c>
-      <c r="B23" t="s">
+      <c r="B24" t="s">
         <v>338</v>
       </c>
-      <c r="C23" t="s">
+      <c r="C24" t="s">
         <v>145</v>
       </c>
     </row>
